--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102年第4季廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102年第4季廣宣彙整表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>1.102年度10-12月漁船船員訓練課程  2.公告鰻苗捕撈漁期管制規定 3.漁業人將遠洋漁船漁獲物輸銷至歐盟地區時，其漁船應完成歐盟登錄且漁獲物衛生應符合歐盟規定。4.漁船主依「就業服務法」僱用之外籍船員應申請及註銷外國籍船員證，且僱用期間不得從事非經許可</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>正中好米行銷宣導</t>
+  </si>
+  <si>
+    <t>民國年</t>
   </si>
   <si>
     <t>水保局</t>
@@ -1381,4208 +1384,4836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
-    <col min="6" max="6" width="9.10"/>
-    <col min="7" max="7" width="9.10"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
+    <col max="7" min="7" width="9.10"/>
+    <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c s="2" t="s" r="A1">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="2">
         <v>61</v>
       </c>
-      <c s="2" t="s" r="B1">
+      <c t="s" r="B1" s="2">
         <v>120</v>
       </c>
-      <c s="2" t="s" r="C1">
+      <c t="s" r="C1" s="2">
+        <v>180</v>
+      </c>
+      <c t="s" r="D1" s="2">
         <v>171</v>
       </c>
-      <c s="2" t="s" r="D1">
-        <v>264</v>
-      </c>
-      <c s="2" t="s" r="E1">
+      <c t="s" r="E1" s="2">
+        <v>265</v>
+      </c>
+      <c t="s" r="F1" s="2">
         <v>81</v>
       </c>
-      <c s="2" t="s" r="F1">
-        <v>237</v>
-      </c>
-      <c s="2" t="s" r="G1">
+      <c t="s" r="G1" s="2">
+        <v>238</v>
+      </c>
+      <c t="s" r="H1" s="2">
         <v>65</v>
       </c>
     </row>
-    <row spans="1:7" r="2">
+    <row spans="1:8" r="2">
       <c t="s" r="A2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="B2">
-        <v>218</v>
-      </c>
-      <c t="s" r="C2">
+        <v>219</v>
+      </c>
+      <c t="n" r="C2">
+        <v>102</v>
+      </c>
+      <c t="s" r="D2">
         <v>16</v>
       </c>
-      <c t="n" r="D2">
+      <c t="n" r="E2">
         <v>97711</v>
       </c>
-      <c t="s" r="E2">
-        <v>250</v>
-      </c>
       <c t="s" r="F2">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="3">
+        <v>251</v>
+      </c>
+      <c t="s" r="G2">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="3">
       <c t="s" r="A3">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="B3">
         <v>103</v>
       </c>
-      <c t="s" r="C3">
+      <c t="n" r="C3">
+        <v>102</v>
+      </c>
+      <c t="s" r="D3">
         <v>14</v>
       </c>
-      <c t="n" r="D3">
+      <c t="n" r="E3">
         <v>200783</v>
       </c>
-      <c t="s" r="E3">
-        <v>250</v>
-      </c>
       <c t="s" r="F3">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="4">
+        <v>251</v>
+      </c>
+      <c t="s" r="G3">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="4">
       <c t="s" r="A4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="B4">
-        <v>285</v>
-      </c>
-      <c t="s" r="C4">
+        <v>286</v>
+      </c>
+      <c t="n" r="C4">
+        <v>102</v>
+      </c>
+      <c t="s" r="D4">
         <v>15</v>
       </c>
-      <c t="n" r="D4">
+      <c t="n" r="E4">
         <v>380657</v>
       </c>
-      <c t="s" r="E4">
-        <v>250</v>
-      </c>
       <c t="s" r="F4">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="5">
+        <v>251</v>
+      </c>
+      <c t="s" r="G4">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="5">
       <c t="s" r="A5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="B5">
         <v>83</v>
       </c>
-      <c s="1" t="n" r="C5">
+      <c t="n" r="C5">
+        <v>102</v>
+      </c>
+      <c t="n" r="D5" s="1">
         <v>41979.0</v>
       </c>
-      <c t="n" r="D5">
+      <c t="n" r="E5">
         <v>41632</v>
       </c>
-      <c t="s" r="E5">
-        <v>250</v>
-      </c>
       <c t="s" r="F5">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="6">
+        <v>251</v>
+      </c>
+      <c t="s" r="G5">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
       <c t="s" r="A6">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="B6">
-        <v>292</v>
-      </c>
-      <c t="s" r="C6">
+        <v>293</v>
+      </c>
+      <c t="n" r="C6">
+        <v>102</v>
+      </c>
+      <c t="s" r="D6">
         <v>20</v>
       </c>
-      <c t="n" r="D6">
+      <c t="n" r="E6">
         <v>267974</v>
       </c>
-      <c t="s" r="E6">
-        <v>250</v>
-      </c>
       <c t="s" r="F6">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="7">
+        <v>251</v>
+      </c>
+      <c t="s" r="G6">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="7">
       <c t="s" r="A7">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="B7">
-        <v>204</v>
-      </c>
-      <c t="s" r="C7">
+        <v>205</v>
+      </c>
+      <c t="n" r="C7">
+        <v>102</v>
+      </c>
+      <c t="s" r="D7">
         <v>20</v>
       </c>
-      <c t="n" r="D7">
+      <c t="n" r="E7">
         <v>0</v>
       </c>
-      <c t="s" r="E7">
-        <v>250</v>
-      </c>
       <c t="s" r="F7">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="8">
+        <v>251</v>
+      </c>
+      <c t="s" r="G7">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="8">
       <c t="s" r="A8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="B8">
-        <v>219</v>
-      </c>
-      <c t="s" r="C8">
+        <v>220</v>
+      </c>
+      <c t="n" r="C8">
+        <v>102</v>
+      </c>
+      <c t="s" r="D8">
         <v>11</v>
       </c>
-      <c t="n" r="D8">
+      <c t="n" r="E8">
         <v>195422</v>
       </c>
-      <c t="s" r="E8">
-        <v>250</v>
-      </c>
       <c t="s" r="F8">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="9">
+        <v>251</v>
+      </c>
+      <c t="s" r="G8">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="9">
       <c t="s" r="A9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="B9">
         <v>106</v>
       </c>
-      <c s="1" t="n" r="C9">
+      <c t="n" r="C9">
+        <v>102</v>
+      </c>
+      <c t="n" r="D9" s="1">
         <v>41929.0</v>
       </c>
-      <c t="n" r="D9">
+      <c t="n" r="E9">
         <v>602940</v>
       </c>
-      <c t="s" r="E9">
-        <v>250</v>
-      </c>
       <c t="s" r="F9">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="10">
+        <v>251</v>
+      </c>
+      <c t="s" r="G9">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="10">
       <c t="s" r="A10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="B10">
-        <v>291</v>
-      </c>
-      <c t="s" r="C10">
+        <v>292</v>
+      </c>
+      <c t="n" r="C10">
+        <v>102</v>
+      </c>
+      <c t="s" r="D10">
         <v>2</v>
       </c>
-      <c t="n" r="D10">
+      <c t="n" r="E10">
         <v>584509</v>
       </c>
-      <c t="s" r="E10">
-        <v>250</v>
-      </c>
       <c t="s" r="F10">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="G10">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="11">
       <c t="s" r="A11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="B11">
         <v>150</v>
       </c>
-      <c t="s" r="C11">
+      <c t="n" r="C11">
+        <v>102</v>
+      </c>
+      <c t="s" r="D11">
         <v>2</v>
       </c>
-      <c t="n" r="D11">
+      <c t="n" r="E11">
         <v>156350</v>
       </c>
-      <c t="s" r="E11">
-        <v>250</v>
-      </c>
       <c t="s" r="F11">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="12">
+        <v>251</v>
+      </c>
+      <c t="s" r="G11">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="12">
       <c t="s" r="A12">
         <v>60</v>
       </c>
       <c t="s" r="B12">
         <v>117</v>
       </c>
-      <c s="1" t="n" r="C12">
+      <c t="n" r="C12">
+        <v>102</v>
+      </c>
+      <c t="n" r="D12" s="1">
         <v>41981.0</v>
       </c>
-      <c t="n" r="D12">
+      <c t="n" r="E12">
         <v>42993</v>
       </c>
-      <c t="s" r="E12">
-        <v>250</v>
-      </c>
       <c t="s" r="F12">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="13">
+        <v>251</v>
+      </c>
+      <c t="s" r="G12">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="13">
       <c t="s" r="A13">
         <v>125</v>
       </c>
       <c t="s" r="B13">
         <v>95</v>
       </c>
-      <c t="s" r="C13">
+      <c t="n" r="C13">
+        <v>102</v>
+      </c>
+      <c t="s" r="D13">
         <v>11</v>
       </c>
-      <c t="n" r="D13">
+      <c t="n" r="E13">
         <v>590445</v>
       </c>
-      <c t="s" r="E13">
-        <v>250</v>
-      </c>
       <c t="s" r="F13">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="14">
+        <v>251</v>
+      </c>
+      <c t="s" r="G13">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="14">
       <c t="s" r="A14">
         <v>125</v>
       </c>
       <c t="s" r="B14">
-        <v>277</v>
-      </c>
-      <c t="s" r="C14">
+        <v>278</v>
+      </c>
+      <c t="n" r="C14">
+        <v>102</v>
+      </c>
+      <c t="s" r="D14">
         <v>11</v>
       </c>
-      <c t="n" r="D14">
+      <c t="n" r="E14">
         <v>217314</v>
       </c>
-      <c t="s" r="E14">
-        <v>250</v>
-      </c>
       <c t="s" r="F14">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="15">
+        <v>251</v>
+      </c>
+      <c t="s" r="G14">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="15">
       <c t="s" r="A15">
         <v>125</v>
       </c>
       <c t="s" r="B15">
-        <v>209</v>
-      </c>
-      <c t="s" r="C15">
+        <v>210</v>
+      </c>
+      <c t="n" r="C15">
+        <v>102</v>
+      </c>
+      <c t="s" r="D15">
         <v>11</v>
       </c>
-      <c t="n" r="D15">
+      <c t="n" r="E15">
         <v>210700</v>
       </c>
-      <c t="s" r="E15">
-        <v>250</v>
-      </c>
       <c t="s" r="F15">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="16">
+        <v>251</v>
+      </c>
+      <c t="s" r="G15">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="16">
       <c t="s" r="A16">
         <v>124</v>
       </c>
       <c t="s" r="B16">
         <v>94</v>
       </c>
-      <c s="1" t="n" r="C16">
+      <c t="n" r="C16">
+        <v>102</v>
+      </c>
+      <c t="n" r="D16" s="1">
         <v>41972.0</v>
       </c>
-      <c t="n" r="D16">
+      <c t="n" r="E16">
         <v>708012</v>
       </c>
-      <c t="s" r="E16">
-        <v>250</v>
-      </c>
       <c t="s" r="F16">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="17">
+        <v>251</v>
+      </c>
+      <c t="s" r="G16">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="17">
       <c t="s" r="A17">
         <v>124</v>
       </c>
       <c t="s" r="B17">
-        <v>271</v>
-      </c>
-      <c t="s" r="C17">
+        <v>272</v>
+      </c>
+      <c t="n" r="C17">
+        <v>102</v>
+      </c>
+      <c t="s" r="D17">
         <v>20</v>
       </c>
-      <c t="n" r="D17">
+      <c t="n" r="E17">
         <v>517156</v>
       </c>
-      <c t="s" r="E17">
-        <v>250</v>
-      </c>
       <c t="s" r="F17">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="18">
+        <v>251</v>
+      </c>
+      <c t="s" r="G17">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="18">
       <c t="s" r="A18">
         <v>124</v>
       </c>
       <c t="s" r="B18">
         <v>152</v>
       </c>
-      <c t="s" r="C18">
+      <c t="n" r="C18">
+        <v>102</v>
+      </c>
+      <c t="s" r="D18">
         <v>16</v>
       </c>
-      <c t="n" r="D18">
+      <c t="n" r="E18">
         <v>361426</v>
       </c>
-      <c t="s" r="E18">
-        <v>250</v>
-      </c>
       <c t="s" r="F18">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="19">
+        <v>251</v>
+      </c>
+      <c t="s" r="G18">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="19">
       <c t="s" r="A19">
         <v>124</v>
       </c>
       <c t="s" r="B19">
-        <v>206</v>
-      </c>
-      <c t="s" r="C19">
+        <v>207</v>
+      </c>
+      <c t="n" r="C19">
+        <v>102</v>
+      </c>
+      <c t="s" r="D19">
         <v>20</v>
       </c>
-      <c t="n" r="D19">
+      <c t="n" r="E19">
         <v>160500</v>
       </c>
-      <c t="s" r="E19">
-        <v>250</v>
-      </c>
       <c t="s" r="F19">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="20">
+        <v>251</v>
+      </c>
+      <c t="s" r="G19">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="20">
       <c t="s" r="A20">
         <v>168</v>
       </c>
       <c t="s" r="B20">
-        <v>302</v>
-      </c>
-      <c t="s" r="C20">
+        <v>303</v>
+      </c>
+      <c t="n" r="C20">
+        <v>102</v>
+      </c>
+      <c t="s" r="D20">
         <v>15</v>
       </c>
-      <c t="n" r="D20">
+      <c t="n" r="E20">
         <v>317647</v>
       </c>
-      <c t="s" r="E20">
-        <v>250</v>
-      </c>
       <c t="s" r="F20">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="21">
+        <v>251</v>
+      </c>
+      <c t="s" r="G20">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="21">
       <c t="s" r="A21">
         <v>168</v>
       </c>
       <c t="s" r="B21">
         <v>88</v>
       </c>
-      <c s="1" t="n" r="C21">
+      <c t="n" r="C21">
+        <v>102</v>
+      </c>
+      <c t="n" r="D21" s="1">
         <v>41973.0</v>
       </c>
-      <c t="n" r="D21">
+      <c t="n" r="E21">
         <v>0</v>
       </c>
-      <c t="s" r="E21">
-        <v>250</v>
-      </c>
       <c t="s" r="F21">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="22">
+        <v>251</v>
+      </c>
+      <c t="s" r="G21">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="22">
       <c t="s" r="A22">
         <v>168</v>
       </c>
       <c t="s" r="B22">
         <v>86</v>
       </c>
-      <c t="s" r="C22">
+      <c t="n" r="C22">
+        <v>102</v>
+      </c>
+      <c t="s" r="D22">
         <v>20</v>
       </c>
-      <c t="n" r="D22">
+      <c t="n" r="E22">
         <v>0</v>
       </c>
-      <c t="s" r="E22">
-        <v>250</v>
-      </c>
       <c t="s" r="F22">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="23">
+        <v>251</v>
+      </c>
+      <c t="s" r="G22">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="23">
       <c t="s" r="A23">
         <v>168</v>
       </c>
       <c t="s" r="B23">
-        <v>212</v>
-      </c>
-      <c t="s" r="C23">
+        <v>213</v>
+      </c>
+      <c t="n" r="C23">
+        <v>102</v>
+      </c>
+      <c t="s" r="D23">
         <v>16</v>
       </c>
-      <c t="n" r="D23">
+      <c t="n" r="E23">
         <v>0</v>
       </c>
-      <c t="s" r="E23">
-        <v>250</v>
-      </c>
       <c t="s" r="F23">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="24">
+        <v>251</v>
+      </c>
+      <c t="s" r="G23">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="24">
       <c t="s" r="A24">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="B24">
-        <v>300</v>
-      </c>
-      <c t="s" r="C24">
+        <v>301</v>
+      </c>
+      <c t="n" r="C24">
+        <v>102</v>
+      </c>
+      <c t="s" r="D24">
         <v>20</v>
       </c>
-      <c t="n" r="D24">
+      <c t="n" r="E24">
         <v>129956</v>
       </c>
-      <c t="s" r="E24">
-        <v>250</v>
-      </c>
       <c t="s" r="F24">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="25">
+        <v>251</v>
+      </c>
+      <c t="s" r="G24">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="25">
       <c t="s" r="A25">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="B25">
         <v>87</v>
       </c>
-      <c t="s" r="C25">
+      <c t="n" r="C25">
+        <v>102</v>
+      </c>
+      <c t="s" r="D25">
         <v>15</v>
       </c>
-      <c t="n" r="D25">
+      <c t="n" r="E25">
         <v>0</v>
       </c>
-      <c t="s" r="E25">
-        <v>250</v>
-      </c>
       <c t="s" r="F25">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="26">
+        <v>251</v>
+      </c>
+      <c t="s" r="G25">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="26">
       <c t="s" r="A26">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="B26">
-        <v>211</v>
-      </c>
-      <c t="s" r="C26">
+        <v>212</v>
+      </c>
+      <c t="n" r="C26">
+        <v>102</v>
+      </c>
+      <c t="s" r="D26">
         <v>16</v>
       </c>
-      <c t="n" r="D26">
+      <c t="n" r="E26">
         <v>0</v>
       </c>
-      <c t="s" r="E26">
-        <v>250</v>
-      </c>
       <c t="s" r="F26">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="27">
+        <v>251</v>
+      </c>
+      <c t="s" r="G26">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="27">
       <c t="s" r="A27">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="B27">
-        <v>301</v>
-      </c>
-      <c t="s" r="C27">
+        <v>302</v>
+      </c>
+      <c t="n" r="C27">
+        <v>102</v>
+      </c>
+      <c t="s" r="D27">
         <v>20</v>
       </c>
-      <c t="n" r="D27">
+      <c t="n" r="E27">
         <v>48856</v>
       </c>
-      <c t="s" r="E27">
-        <v>250</v>
-      </c>
       <c t="s" r="F27">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="28">
+        <v>251</v>
+      </c>
+      <c t="s" r="G27">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="28">
       <c t="s" r="A28">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="B28">
-        <v>221</v>
-      </c>
-      <c t="s" r="C28">
+        <v>222</v>
+      </c>
+      <c t="n" r="C28">
+        <v>102</v>
+      </c>
+      <c t="s" r="D28">
         <v>15</v>
       </c>
-      <c t="n" r="D28">
+      <c t="n" r="E28">
         <v>0</v>
       </c>
-      <c t="s" r="E28">
-        <v>250</v>
-      </c>
       <c t="s" r="F28">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="29">
+        <v>251</v>
+      </c>
+      <c t="s" r="G28">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="29">
       <c t="s" r="A29">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="B29">
-        <v>288</v>
-      </c>
-      <c t="s" r="C29">
+        <v>289</v>
+      </c>
+      <c t="n" r="C29">
+        <v>102</v>
+      </c>
+      <c t="s" r="D29">
         <v>16</v>
       </c>
-      <c t="n" r="D29">
+      <c t="n" r="E29">
         <v>117632</v>
       </c>
-      <c t="s" r="E29">
-        <v>250</v>
-      </c>
       <c t="s" r="F29">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="30">
+        <v>251</v>
+      </c>
+      <c t="s" r="G29">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="30">
       <c t="s" r="A30">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="B30">
         <v>156</v>
       </c>
-      <c t="s" r="C30">
+      <c t="n" r="C30">
+        <v>102</v>
+      </c>
+      <c t="s" r="D30">
         <v>15</v>
       </c>
-      <c t="n" r="D30">
+      <c t="n" r="E30">
         <v>64976</v>
       </c>
-      <c t="s" r="E30">
-        <v>250</v>
-      </c>
       <c t="s" r="F30">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="31">
+        <v>251</v>
+      </c>
+      <c t="s" r="G30">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="31">
       <c t="s" r="A31">
         <v>63</v>
       </c>
       <c t="s" r="B31">
-        <v>216</v>
-      </c>
-      <c s="1" t="n" r="C31">
+        <v>217</v>
+      </c>
+      <c t="n" r="C31">
+        <v>102</v>
+      </c>
+      <c t="n" r="D31" s="1">
         <v>41965.0</v>
       </c>
-      <c t="n" r="D31">
+      <c t="n" r="E31">
         <v>0</v>
       </c>
-      <c t="s" r="E31">
-        <v>250</v>
-      </c>
       <c t="s" r="F31">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="32">
+        <v>251</v>
+      </c>
+      <c t="s" r="G31">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="32">
       <c t="s" r="A32">
         <v>75</v>
       </c>
       <c t="s" r="B32">
-        <v>216</v>
-      </c>
-      <c s="1" t="n" r="C32">
+        <v>217</v>
+      </c>
+      <c t="n" r="C32">
+        <v>102</v>
+      </c>
+      <c t="n" r="D32" s="1">
         <v>41973.0</v>
       </c>
-      <c t="n" r="D32">
+      <c t="n" r="E32">
         <v>0</v>
       </c>
-      <c t="s" r="E32">
-        <v>250</v>
-      </c>
       <c t="s" r="F32">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="33">
+        <v>251</v>
+      </c>
+      <c t="s" r="G32">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="33">
       <c t="s" r="A33">
         <v>36</v>
       </c>
       <c t="s" r="B33">
         <v>110</v>
       </c>
-      <c t="s" r="C33">
+      <c t="n" r="C33">
+        <v>102</v>
+      </c>
+      <c t="s" r="D33">
         <v>23</v>
       </c>
-      <c t="n" r="D33">
+      <c t="n" r="E33">
         <v>404000</v>
       </c>
-      <c t="s" r="E33">
-        <v>250</v>
-      </c>
       <c t="s" r="F33">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="34">
+        <v>251</v>
+      </c>
+      <c t="s" r="G33">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="34">
       <c t="s" r="A34">
         <v>36</v>
       </c>
       <c t="s" r="B34">
-        <v>216</v>
-      </c>
-      <c s="1" t="n" r="C34">
+        <v>217</v>
+      </c>
+      <c t="n" r="C34">
+        <v>102</v>
+      </c>
+      <c t="n" r="D34" s="1">
         <v>41983.0</v>
       </c>
-      <c t="n" r="D34">
+      <c t="n" r="E34">
         <v>0</v>
       </c>
-      <c t="s" r="E34">
-        <v>250</v>
-      </c>
       <c t="s" r="F34">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="35">
+        <v>251</v>
+      </c>
+      <c t="s" r="G34">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="35">
       <c t="s" r="A35">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="B35">
-        <v>213</v>
-      </c>
-      <c t="s" r="C35">
+        <v>214</v>
+      </c>
+      <c t="n" r="C35">
+        <v>102</v>
+      </c>
+      <c t="s" r="D35">
         <v>11</v>
       </c>
-      <c t="n" r="D35">
+      <c t="n" r="E35">
         <v>0</v>
       </c>
-      <c t="s" r="E35">
-        <v>250</v>
-      </c>
       <c t="s" r="F35">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="36">
+        <v>251</v>
+      </c>
+      <c t="s" r="G35">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="36">
       <c t="s" r="A36">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="B36">
-        <v>217</v>
-      </c>
-      <c t="s" r="C36">
+        <v>218</v>
+      </c>
+      <c t="n" r="C36">
+        <v>102</v>
+      </c>
+      <c t="s" r="D36">
         <v>11</v>
       </c>
-      <c t="n" r="D36">
+      <c t="n" r="E36">
         <v>694500</v>
       </c>
-      <c t="s" r="E36">
-        <v>250</v>
-      </c>
       <c t="s" r="F36">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="37">
+        <v>251</v>
+      </c>
+      <c t="s" r="G36">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="37">
       <c t="s" r="A37">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B37">
         <v>102</v>
       </c>
-      <c t="s" r="C37">
+      <c t="n" r="C37">
+        <v>102</v>
+      </c>
+      <c t="s" r="D37">
         <v>11</v>
       </c>
-      <c t="n" r="D37">
+      <c t="n" r="E37">
         <v>70600</v>
       </c>
-      <c t="s" r="E37">
-        <v>250</v>
-      </c>
       <c t="s" r="F37">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="38">
+        <v>251</v>
+      </c>
+      <c t="s" r="G37">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="38">
       <c t="s" r="A38">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B38">
-        <v>269</v>
-      </c>
-      <c t="s" r="C38">
+        <v>270</v>
+      </c>
+      <c t="n" r="C38">
+        <v>102</v>
+      </c>
+      <c t="s" r="D38">
         <v>20</v>
       </c>
-      <c t="n" r="D38">
+      <c t="n" r="E38">
         <v>78000</v>
       </c>
-      <c t="s" r="E38">
-        <v>250</v>
-      </c>
       <c t="s" r="F38">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="39">
+        <v>251</v>
+      </c>
+      <c t="s" r="G38">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="39">
       <c t="s" r="A39">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B39">
         <v>154</v>
       </c>
-      <c t="s" r="C39">
+      <c t="n" r="C39">
+        <v>102</v>
+      </c>
+      <c t="s" r="D39">
         <v>20</v>
       </c>
-      <c t="n" r="D39">
+      <c t="n" r="E39">
         <v>24080</v>
       </c>
-      <c t="s" r="E39">
-        <v>250</v>
-      </c>
       <c t="s" r="F39">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="40">
+        <v>251</v>
+      </c>
+      <c t="s" r="G39">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="40">
       <c t="s" r="A40">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B40">
         <v>129</v>
       </c>
-      <c t="s" r="C40">
+      <c t="n" r="C40">
+        <v>102</v>
+      </c>
+      <c t="s" r="D40">
         <v>20</v>
       </c>
-      <c t="n" r="D40">
+      <c t="n" r="E40">
         <v>0</v>
       </c>
-      <c t="s" r="E40">
-        <v>250</v>
-      </c>
       <c t="s" r="F40">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="41">
+        <v>251</v>
+      </c>
+      <c t="s" r="G40">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="41">
       <c t="s" r="A41">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B41">
-        <v>229</v>
-      </c>
-      <c t="s" r="C41">
+        <v>230</v>
+      </c>
+      <c t="n" r="C41">
+        <v>102</v>
+      </c>
+      <c t="s" r="D41">
         <v>20</v>
       </c>
-      <c t="n" r="D41">
+      <c t="n" r="E41">
         <v>0</v>
       </c>
-      <c t="s" r="E41">
-        <v>250</v>
-      </c>
       <c t="s" r="F41">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="42">
+        <v>251</v>
+      </c>
+      <c t="s" r="G41">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="42">
       <c t="s" r="A42">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B42">
-        <v>309</v>
-      </c>
-      <c t="s" r="C42">
+        <v>310</v>
+      </c>
+      <c t="n" r="C42">
+        <v>102</v>
+      </c>
+      <c t="s" r="D42">
         <v>20</v>
       </c>
-      <c t="n" r="D42">
+      <c t="n" r="E42">
         <v>0</v>
       </c>
-      <c t="s" r="E42">
-        <v>250</v>
-      </c>
       <c t="s" r="F42">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="43">
+        <v>251</v>
+      </c>
+      <c t="s" r="G42">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="43">
       <c t="s" r="A43">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B43">
         <v>157</v>
       </c>
-      <c t="s" r="C43">
+      <c t="n" r="C43">
+        <v>102</v>
+      </c>
+      <c t="s" r="D43">
         <v>20</v>
       </c>
-      <c t="n" r="D43">
+      <c t="n" r="E43">
         <v>0</v>
       </c>
-      <c t="s" r="E43">
-        <v>250</v>
-      </c>
       <c t="s" r="F43">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="44">
+        <v>251</v>
+      </c>
+      <c t="s" r="G43">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="44">
       <c t="s" r="A44">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="B44">
-        <v>317</v>
-      </c>
-      <c t="s" r="C44">
+        <v>318</v>
+      </c>
+      <c t="n" r="C44">
+        <v>102</v>
+      </c>
+      <c t="s" r="D44">
         <v>20</v>
       </c>
-      <c t="n" r="D44">
+      <c t="n" r="E44">
         <v>0</v>
       </c>
-      <c t="s" r="E44">
-        <v>250</v>
-      </c>
       <c t="s" r="F44">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="45">
+        <v>251</v>
+      </c>
+      <c t="s" r="G44">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="45">
       <c t="s" r="A45">
+        <v>325</v>
+      </c>
+      <c t="s" r="B45">
+        <v>271</v>
+      </c>
+      <c t="n" r="C45">
+        <v>102</v>
+      </c>
+      <c t="s" r="D45">
+        <v>11</v>
+      </c>
+      <c t="n" r="E45">
+        <v>809960</v>
+      </c>
+      <c t="s" r="F45">
+        <v>251</v>
+      </c>
+      <c t="s" r="G45">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="46">
+      <c t="s" r="A46">
+        <v>325</v>
+      </c>
+      <c t="s" r="B46">
+        <v>208</v>
+      </c>
+      <c t="n" r="C46">
+        <v>102</v>
+      </c>
+      <c t="s" r="D46">
+        <v>44</v>
+      </c>
+      <c t="n" r="E46">
+        <v>142140</v>
+      </c>
+      <c t="s" r="F46">
+        <v>251</v>
+      </c>
+      <c t="s" r="G46">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="47">
+      <c t="s" r="A47">
         <v>324</v>
-      </c>
-      <c t="s" r="B45">
-        <v>270</v>
-      </c>
-      <c t="s" r="C45">
-        <v>11</v>
-      </c>
-      <c t="n" r="D45">
-        <v>809960</v>
-      </c>
-      <c t="s" r="E45">
-        <v>250</v>
-      </c>
-      <c t="s" r="F45">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="46">
-      <c t="s" r="A46">
-        <v>324</v>
-      </c>
-      <c t="s" r="B46">
-        <v>207</v>
-      </c>
-      <c t="s" r="C46">
-        <v>44</v>
-      </c>
-      <c t="n" r="D46">
-        <v>142140</v>
-      </c>
-      <c t="s" r="E46">
-        <v>250</v>
-      </c>
-      <c t="s" r="F46">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="47">
-      <c t="s" r="A47">
-        <v>323</v>
       </c>
       <c t="s" r="B47">
         <v>85</v>
       </c>
-      <c t="s" r="C47">
+      <c t="n" r="C47">
+        <v>102</v>
+      </c>
+      <c t="s" r="D47">
         <v>16</v>
       </c>
-      <c t="n" r="D47">
+      <c t="n" r="E47">
         <v>122080</v>
       </c>
-      <c t="s" r="E47">
-        <v>250</v>
-      </c>
       <c t="s" r="F47">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="48">
+        <v>251</v>
+      </c>
+      <c t="s" r="G47">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="48">
       <c t="s" r="A48">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="B48">
         <v>153</v>
       </c>
-      <c t="s" r="C48">
+      <c t="n" r="C48">
+        <v>102</v>
+      </c>
+      <c t="s" r="D48">
         <v>16</v>
       </c>
-      <c t="n" r="D48">
+      <c t="n" r="E48">
         <v>177730</v>
       </c>
-      <c t="s" r="E48">
-        <v>250</v>
-      </c>
       <c t="s" r="F48">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="49">
+        <v>251</v>
+      </c>
+      <c t="s" r="G48">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="49">
       <c t="s" r="A49">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="B49">
         <v>158</v>
       </c>
-      <c t="s" r="C49">
+      <c t="n" r="C49">
+        <v>102</v>
+      </c>
+      <c t="s" r="D49">
         <v>16</v>
       </c>
-      <c t="n" r="D49">
+      <c t="n" r="E49">
         <v>0</v>
       </c>
-      <c t="s" r="E49">
-        <v>250</v>
-      </c>
       <c t="s" r="F49">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="50">
+        <v>251</v>
+      </c>
+      <c t="s" r="G49">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="50">
       <c t="s" r="A50">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="B50">
-        <v>213</v>
-      </c>
-      <c t="s" r="C50">
+        <v>214</v>
+      </c>
+      <c t="n" r="C50">
+        <v>102</v>
+      </c>
+      <c t="s" r="D50">
         <v>46</v>
       </c>
-      <c t="n" r="D50">
+      <c t="n" r="E50">
         <v>0</v>
       </c>
-      <c t="s" r="E50">
-        <v>250</v>
-      </c>
       <c t="s" r="F50">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="51">
+        <v>251</v>
+      </c>
+      <c t="s" r="G50">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="51">
       <c t="s" r="A51">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="B51">
         <v>129</v>
       </c>
-      <c t="s" r="C51">
+      <c t="n" r="C51">
+        <v>102</v>
+      </c>
+      <c t="s" r="D51">
         <v>16</v>
       </c>
-      <c t="n" r="D51">
+      <c t="n" r="E51">
         <v>0</v>
       </c>
-      <c t="s" r="E51">
-        <v>250</v>
-      </c>
       <c t="s" r="F51">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="52">
+        <v>251</v>
+      </c>
+      <c t="s" r="G51">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="52">
       <c t="s" r="A52">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="B52">
-        <v>223</v>
-      </c>
-      <c t="s" r="C52">
+        <v>224</v>
+      </c>
+      <c t="n" r="C52">
+        <v>102</v>
+      </c>
+      <c t="s" r="D52">
         <v>20</v>
       </c>
-      <c t="n" r="D52">
+      <c t="n" r="E52">
         <v>149000</v>
       </c>
-      <c t="s" r="E52">
-        <v>250</v>
-      </c>
       <c t="s" r="F52">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="53">
+        <v>251</v>
+      </c>
+      <c t="s" r="G52">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="53">
       <c t="s" r="A53">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="B53">
-        <v>312</v>
-      </c>
-      <c t="s" r="C53">
+        <v>313</v>
+      </c>
+      <c t="n" r="C53">
+        <v>102</v>
+      </c>
+      <c t="s" r="D53">
         <v>44</v>
       </c>
-      <c t="n" r="D53">
+      <c t="n" r="E53">
         <v>0</v>
       </c>
-      <c t="s" r="E53">
-        <v>250</v>
-      </c>
       <c t="s" r="F53">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="54">
+        <v>251</v>
+      </c>
+      <c t="s" r="G53">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="54">
       <c t="s" r="A54">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="B54">
-        <v>228</v>
-      </c>
-      <c t="s" r="C54">
+        <v>229</v>
+      </c>
+      <c t="n" r="C54">
+        <v>102</v>
+      </c>
+      <c t="s" r="D54">
         <v>47</v>
       </c>
-      <c t="n" r="D54">
+      <c t="n" r="E54">
         <v>450000</v>
       </c>
-      <c t="s" r="E54">
-        <v>250</v>
-      </c>
       <c t="s" r="F54">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="55">
+        <v>251</v>
+      </c>
+      <c t="s" r="G54">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="55">
       <c t="s" r="A55">
         <v>32</v>
       </c>
       <c t="s" r="B55">
-        <v>284</v>
-      </c>
-      <c t="s" r="C55">
+        <v>285</v>
+      </c>
+      <c t="n" r="C55">
+        <v>102</v>
+      </c>
+      <c t="s" r="D55">
         <v>16</v>
       </c>
-      <c t="n" r="D55">
+      <c t="n" r="E55">
         <v>278400</v>
       </c>
-      <c t="s" r="E55">
-        <v>250</v>
-      </c>
       <c t="s" r="F55">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="56">
+        <v>251</v>
+      </c>
+      <c t="s" r="G55">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="56">
       <c t="s" r="A56">
         <v>32</v>
       </c>
       <c t="s" r="B56">
         <v>91</v>
       </c>
-      <c t="s" r="C56">
+      <c t="n" r="C56">
+        <v>102</v>
+      </c>
+      <c t="s" r="D56">
         <v>19</v>
       </c>
-      <c t="n" r="D56">
+      <c t="n" r="E56">
         <v>381000</v>
       </c>
-      <c t="s" r="E56">
-        <v>250</v>
-      </c>
       <c t="s" r="F56">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="57">
+        <v>251</v>
+      </c>
+      <c t="s" r="G56">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="57">
       <c t="s" r="A57">
         <v>32</v>
       </c>
       <c t="s" r="B57">
         <v>155</v>
       </c>
-      <c t="s" r="C57">
+      <c t="n" r="C57">
+        <v>102</v>
+      </c>
+      <c t="s" r="D57">
         <v>15</v>
       </c>
-      <c t="n" r="D57">
+      <c t="n" r="E57">
         <v>57500</v>
       </c>
-      <c t="s" r="E57">
-        <v>250</v>
-      </c>
       <c t="s" r="F57">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="58">
+        <v>251</v>
+      </c>
+      <c t="s" r="G57">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="58">
       <c t="s" r="A58">
         <v>32</v>
       </c>
       <c t="s" r="B58">
         <v>130</v>
       </c>
-      <c t="s" r="C58">
+      <c t="n" r="C58">
+        <v>102</v>
+      </c>
+      <c t="s" r="D58">
         <v>16</v>
       </c>
-      <c t="n" r="D58">
+      <c t="n" r="E58">
         <v>73674</v>
       </c>
-      <c t="s" r="E58">
-        <v>250</v>
-      </c>
       <c t="s" r="F58">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="59">
+        <v>251</v>
+      </c>
+      <c t="s" r="G58">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="59">
       <c t="s" r="A59">
         <v>32</v>
       </c>
       <c t="s" r="B59">
-        <v>208</v>
-      </c>
-      <c t="s" r="C59">
+        <v>209</v>
+      </c>
+      <c t="n" r="C59">
+        <v>102</v>
+      </c>
+      <c t="s" r="D59">
         <v>15</v>
       </c>
-      <c t="n" r="D59">
+      <c t="n" r="E59">
         <v>83800</v>
       </c>
-      <c t="s" r="E59">
-        <v>250</v>
-      </c>
       <c t="s" r="F59">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="60">
+        <v>251</v>
+      </c>
+      <c t="s" r="G59">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="60">
       <c t="s" r="A60">
         <v>32</v>
       </c>
       <c t="s" r="B60">
         <v>88</v>
       </c>
-      <c t="s" r="C60">
+      <c t="n" r="C60">
+        <v>102</v>
+      </c>
+      <c t="s" r="D60">
         <v>20</v>
       </c>
-      <c t="n" r="D60">
+      <c t="n" r="E60">
         <v>0</v>
       </c>
-      <c t="s" r="E60">
-        <v>250</v>
-      </c>
       <c t="s" r="F60">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="61">
+        <v>251</v>
+      </c>
+      <c t="s" r="G60">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="61">
       <c t="s" r="A61">
         <v>126</v>
       </c>
       <c t="s" r="B61">
-        <v>222</v>
-      </c>
-      <c t="s" r="C61">
+        <v>223</v>
+      </c>
+      <c t="n" r="C61">
+        <v>102</v>
+      </c>
+      <c t="s" r="D61">
         <v>20</v>
       </c>
-      <c t="n" r="D61">
+      <c t="n" r="E61">
         <v>74500</v>
       </c>
-      <c t="s" r="E61">
-        <v>250</v>
-      </c>
       <c t="s" r="F61">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="62">
+        <v>251</v>
+      </c>
+      <c t="s" r="G61">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="62">
       <c t="s" r="A62">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="B62">
-        <v>294</v>
-      </c>
-      <c t="s" r="C62">
+        <v>295</v>
+      </c>
+      <c t="n" r="C62">
+        <v>102</v>
+      </c>
+      <c t="s" r="D62">
         <v>20</v>
       </c>
-      <c t="n" r="D62">
+      <c t="n" r="E62">
         <v>152900</v>
       </c>
-      <c t="s" r="E62">
-        <v>250</v>
-      </c>
       <c t="s" r="F62">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="63">
+        <v>251</v>
+      </c>
+      <c t="s" r="G62">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="63">
       <c t="s" r="A63">
         <v>37</v>
       </c>
       <c t="s" r="B63">
         <v>114</v>
       </c>
-      <c t="s" r="C63">
+      <c t="n" r="C63">
+        <v>102</v>
+      </c>
+      <c t="s" r="D63">
         <v>20</v>
       </c>
-      <c t="n" r="D63">
+      <c t="n" r="E63">
         <v>761400</v>
       </c>
-      <c t="s" r="E63">
-        <v>250</v>
-      </c>
       <c t="s" r="F63">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="64">
+        <v>251</v>
+      </c>
+      <c t="s" r="G63">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="64">
       <c t="s" r="A64">
         <v>37</v>
       </c>
       <c t="s" r="B64">
-        <v>316</v>
-      </c>
-      <c t="s" r="C64">
+        <v>317</v>
+      </c>
+      <c t="n" r="C64">
+        <v>102</v>
+      </c>
+      <c t="s" r="D64">
         <v>20</v>
       </c>
-      <c t="n" r="D64">
+      <c t="n" r="E64">
         <v>0</v>
       </c>
-      <c t="s" r="E64">
-        <v>250</v>
-      </c>
       <c t="s" r="F64">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="65">
+        <v>251</v>
+      </c>
+      <c t="s" r="G64">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="65">
       <c t="s" r="A65">
         <v>37</v>
       </c>
       <c t="s" r="B65">
         <v>134</v>
       </c>
-      <c t="s" r="C65">
+      <c t="n" r="C65">
+        <v>102</v>
+      </c>
+      <c t="s" r="D65">
         <v>22</v>
       </c>
-      <c t="n" r="D65">
+      <c t="n" r="E65">
         <v>540000</v>
       </c>
-      <c t="s" r="E65">
-        <v>250</v>
-      </c>
       <c t="s" r="F65">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="66">
+        <v>251</v>
+      </c>
+      <c t="s" r="G65">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="66">
       <c t="s" r="A66">
         <v>37</v>
       </c>
       <c t="s" r="B66">
-        <v>228</v>
-      </c>
-      <c t="s" r="C66">
+        <v>229</v>
+      </c>
+      <c t="n" r="C66">
+        <v>102</v>
+      </c>
+      <c t="s" r="D66">
         <v>22</v>
       </c>
-      <c t="n" r="D66">
+      <c t="n" r="E66">
         <v>180000</v>
       </c>
-      <c t="s" r="E66">
-        <v>250</v>
-      </c>
       <c t="s" r="F66">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="67">
+        <v>251</v>
+      </c>
+      <c t="s" r="G66">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="67">
       <c t="s" r="A67">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="B67">
-        <v>284</v>
-      </c>
-      <c t="s" r="C67">
+        <v>285</v>
+      </c>
+      <c t="n" r="C67">
+        <v>102</v>
+      </c>
+      <c t="s" r="D67">
         <v>20</v>
       </c>
-      <c t="n" r="D67">
+      <c t="n" r="E67">
         <v>278400</v>
       </c>
-      <c t="s" r="E67">
-        <v>250</v>
-      </c>
       <c t="s" r="F67">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="68">
+        <v>251</v>
+      </c>
+      <c t="s" r="G67">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="68">
       <c t="s" r="A68">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="B68">
-        <v>223</v>
-      </c>
-      <c t="s" r="C68">
+        <v>224</v>
+      </c>
+      <c t="n" r="C68">
+        <v>102</v>
+      </c>
+      <c t="s" r="D68">
         <v>20</v>
       </c>
-      <c t="n" r="D68">
+      <c t="n" r="E68">
         <v>149000</v>
       </c>
-      <c t="s" r="E68">
-        <v>250</v>
-      </c>
       <c t="s" r="F68">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="69">
+        <v>251</v>
+      </c>
+      <c t="s" r="G68">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="69">
       <c t="s" r="A69">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="B69">
-        <v>297</v>
-      </c>
-      <c t="s" r="C69">
+        <v>298</v>
+      </c>
+      <c t="n" r="C69">
+        <v>102</v>
+      </c>
+      <c t="s" r="D69">
         <v>11</v>
       </c>
-      <c t="n" r="D69">
+      <c t="n" r="E69">
         <v>37500</v>
       </c>
-      <c t="s" r="E69">
-        <v>250</v>
-      </c>
       <c t="s" r="F69">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="70">
+        <v>251</v>
+      </c>
+      <c t="s" r="G69">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="70">
       <c t="s" r="A70">
         <v>174</v>
       </c>
       <c t="s" r="B70">
         <v>111</v>
       </c>
-      <c t="s" r="C70">
+      <c t="n" r="C70">
+        <v>102</v>
+      </c>
+      <c t="s" r="D70">
         <v>20</v>
       </c>
-      <c t="n" r="D70">
+      <c t="n" r="E70">
         <v>78400</v>
       </c>
-      <c t="s" r="E70">
-        <v>250</v>
-      </c>
       <c t="s" r="F70">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="71">
+        <v>251</v>
+      </c>
+      <c t="s" r="G70">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="71">
       <c t="s" r="A71">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="B71">
         <v>112</v>
       </c>
-      <c t="s" r="C71">
+      <c t="n" r="C71">
+        <v>102</v>
+      </c>
+      <c t="s" r="D71">
         <v>27</v>
       </c>
-      <c t="n" r="D71">
+      <c t="n" r="E71">
         <v>447000</v>
       </c>
-      <c t="s" r="E71">
-        <v>250</v>
-      </c>
       <c t="s" r="F71">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="72">
+        <v>251</v>
+      </c>
+      <c t="s" r="G71">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="72">
       <c t="s" r="A72">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="B72">
         <v>104</v>
       </c>
-      <c t="s" r="C72">
+      <c t="n" r="C72">
+        <v>102</v>
+      </c>
+      <c t="s" r="D72">
         <v>26</v>
       </c>
-      <c t="n" r="D72">
+      <c t="n" r="E72">
         <v>155000</v>
       </c>
-      <c t="s" r="E72">
-        <v>250</v>
-      </c>
       <c t="s" r="F72">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="73">
+        <v>251</v>
+      </c>
+      <c t="s" r="G72">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="73">
       <c t="s" r="A73">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="B73">
         <v>90</v>
       </c>
-      <c t="s" r="C73">
+      <c t="n" r="C73">
+        <v>102</v>
+      </c>
+      <c t="s" r="D73">
         <v>24</v>
       </c>
-      <c t="n" r="D73">
+      <c t="n" r="E73">
         <v>582000</v>
       </c>
-      <c t="s" r="E73">
-        <v>250</v>
-      </c>
       <c t="s" r="F73">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="74">
+        <v>251</v>
+      </c>
+      <c t="s" r="G73">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="74">
       <c t="s" r="A74">
         <v>66</v>
       </c>
       <c t="s" r="B74">
         <v>148</v>
       </c>
-      <c t="s" r="C74">
+      <c t="n" r="C74">
+        <v>102</v>
+      </c>
+      <c t="s" r="D74">
         <v>2</v>
       </c>
-      <c t="n" r="D74">
+      <c t="n" r="E74">
         <v>256000</v>
       </c>
-      <c t="s" r="E74">
-        <v>250</v>
-      </c>
       <c t="s" r="F74">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="75">
+        <v>251</v>
+      </c>
+      <c t="s" r="G74">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="75">
       <c t="s" r="A75">
         <v>35</v>
       </c>
       <c t="s" r="B75">
         <v>149</v>
       </c>
-      <c t="s" r="C75">
+      <c t="n" r="C75">
+        <v>102</v>
+      </c>
+      <c t="s" r="D75">
         <v>43</v>
       </c>
-      <c t="n" r="D75">
+      <c t="n" r="E75">
         <v>900000</v>
       </c>
-      <c t="s" r="E75">
-        <v>250</v>
-      </c>
       <c t="s" r="F75">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="76">
+        <v>251</v>
+      </c>
+      <c t="s" r="G75">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="76">
       <c t="s" r="A76">
         <v>35</v>
       </c>
       <c t="s" r="B76">
-        <v>308</v>
-      </c>
-      <c t="s" r="C76">
-        <v>43</v>
+        <v>309</v>
+      </c>
+      <c t="n" r="C76">
+        <v>102</v>
       </c>
       <c t="n" r="D76">
         <v>0</v>
       </c>
-      <c t="s" r="E76">
-        <v>250</v>
+      <c t="n" r="E76">
+        <v>900000</v>
       </c>
       <c t="s" r="F76">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="77">
+        <v>251</v>
+      </c>
+      <c t="s" r="G76">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="77">
       <c t="s" r="A77">
         <v>35</v>
       </c>
       <c t="s" r="B77">
         <v>113</v>
       </c>
-      <c t="s" r="C77">
-        <v>43</v>
+      <c t="n" r="C77">
+        <v>102</v>
       </c>
       <c t="n" r="D77">
         <v>0</v>
       </c>
-      <c t="s" r="E77">
-        <v>250</v>
+      <c t="n" r="E77">
+        <v>900000</v>
       </c>
       <c t="s" r="F77">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="78">
+        <v>251</v>
+      </c>
+      <c t="s" r="G77">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="78">
       <c t="s" r="A78">
         <v>31</v>
       </c>
       <c t="s" r="B78">
-        <v>281</v>
-      </c>
-      <c t="s" r="C78">
+        <v>282</v>
+      </c>
+      <c t="n" r="C78">
+        <v>102</v>
+      </c>
+      <c t="s" r="D78">
         <v>3</v>
       </c>
-      <c t="n" r="D78">
+      <c t="n" r="E78">
         <v>800000</v>
       </c>
-      <c t="s" r="E78">
-        <v>250</v>
-      </c>
       <c t="s" r="F78">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="79">
+        <v>251</v>
+      </c>
+      <c t="s" r="G78">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="79">
       <c t="s" r="A79">
         <v>31</v>
       </c>
       <c t="s" r="B79">
-        <v>227</v>
-      </c>
-      <c t="s" r="C79">
-        <v>3</v>
+        <v>228</v>
+      </c>
+      <c t="n" r="C79">
+        <v>102</v>
       </c>
       <c t="n" r="D79">
         <v>0</v>
       </c>
-      <c t="s" r="E79">
-        <v>250</v>
+      <c t="n" r="E79">
+        <v>800000</v>
       </c>
       <c t="s" r="F79">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="80">
+        <v>251</v>
+      </c>
+      <c t="s" r="G79">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="80">
       <c t="s" r="A80">
         <v>70</v>
       </c>
       <c t="s" r="B80">
-        <v>310</v>
-      </c>
-      <c t="s" r="C80">
+        <v>311</v>
+      </c>
+      <c t="n" r="C80">
+        <v>102</v>
+      </c>
+      <c t="s" r="D80">
         <v>41</v>
       </c>
-      <c t="n" r="D80">
+      <c t="n" r="E80">
         <v>130000</v>
       </c>
-      <c t="s" r="E80">
-        <v>250</v>
-      </c>
       <c t="s" r="F80">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="81">
+        <v>251</v>
+      </c>
+      <c t="s" r="G80">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="81">
       <c t="s" r="A81">
         <v>70</v>
       </c>
       <c t="s" r="B81">
-        <v>293</v>
-      </c>
-      <c t="s" r="C81">
-        <v>41</v>
+        <v>294</v>
+      </c>
+      <c t="n" r="C81">
+        <v>102</v>
       </c>
       <c t="n" r="D81">
         <v>0</v>
       </c>
-      <c t="s" r="E81">
-        <v>250</v>
+      <c t="n" r="E81">
+        <v>130000</v>
       </c>
       <c t="s" r="F81">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="82">
+        <v>251</v>
+      </c>
+      <c t="s" r="G81">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="82">
       <c t="s" r="A82">
         <v>30</v>
       </c>
       <c t="s" r="B82">
         <v>84</v>
       </c>
-      <c t="s" r="C82">
+      <c t="n" r="C82">
+        <v>102</v>
+      </c>
+      <c t="s" r="D82">
         <v>45</v>
       </c>
-      <c t="n" r="D82">
+      <c t="n" r="E82">
         <v>560000</v>
       </c>
-      <c t="s" r="E82">
-        <v>250</v>
-      </c>
       <c t="s" r="F82">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="83">
+        <v>251</v>
+      </c>
+      <c t="s" r="G82">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="83">
       <c t="s" r="A83">
         <v>30</v>
       </c>
       <c t="s" r="B83">
-        <v>220</v>
-      </c>
-      <c t="s" r="C83">
-        <v>45</v>
+        <v>221</v>
+      </c>
+      <c t="n" r="C83">
+        <v>102</v>
       </c>
       <c t="n" r="D83">
         <v>0</v>
       </c>
-      <c t="s" r="E83">
-        <v>250</v>
+      <c t="n" r="E83">
+        <v>560000</v>
       </c>
       <c t="s" r="F83">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="84">
+        <v>251</v>
+      </c>
+      <c t="s" r="G83">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="84">
       <c t="s" r="A84">
         <v>30</v>
       </c>
       <c t="s" r="B84">
-        <v>314</v>
-      </c>
-      <c t="s" r="C84">
-        <v>45</v>
+        <v>315</v>
+      </c>
+      <c t="n" r="C84">
+        <v>102</v>
       </c>
       <c t="n" r="D84">
         <v>0</v>
       </c>
-      <c t="s" r="E84">
-        <v>250</v>
+      <c t="n" r="E84">
+        <v>560000</v>
       </c>
       <c t="s" r="F84">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="85">
+        <v>251</v>
+      </c>
+      <c t="s" r="G84">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="85">
       <c t="s" r="A85">
         <v>34</v>
       </c>
       <c t="s" r="B85">
         <v>96</v>
       </c>
-      <c t="s" r="C85">
+      <c t="n" r="C85">
+        <v>102</v>
+      </c>
+      <c t="s" r="D85">
         <v>48</v>
       </c>
-      <c t="n" r="D85">
+      <c t="n" r="E85">
         <v>180000</v>
       </c>
-      <c t="s" r="E85">
-        <v>250</v>
-      </c>
       <c t="s" r="F85">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="86">
+        <v>251</v>
+      </c>
+      <c t="s" r="G85">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="86">
       <c t="s" r="A86">
         <v>34</v>
       </c>
       <c t="s" r="B86">
         <v>131</v>
       </c>
-      <c t="s" r="C86">
-        <v>48</v>
+      <c t="n" r="C86">
+        <v>102</v>
       </c>
       <c t="n" r="D86">
         <v>0</v>
       </c>
-      <c t="s" r="E86">
-        <v>250</v>
+      <c t="n" r="E86">
+        <v>180000</v>
       </c>
       <c t="s" r="F86">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="87">
+        <v>251</v>
+      </c>
+      <c t="s" r="G86">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="87">
       <c t="s" r="A87">
         <v>71</v>
       </c>
       <c t="s" r="B87">
-        <v>311</v>
-      </c>
-      <c t="s" r="C87">
+        <v>312</v>
+      </c>
+      <c t="n" r="C87">
+        <v>102</v>
+      </c>
+      <c t="s" r="D87">
         <v>3</v>
       </c>
-      <c t="n" r="D87">
+      <c t="n" r="E87">
         <v>150000</v>
       </c>
-      <c t="s" r="E87">
-        <v>250</v>
-      </c>
       <c t="s" r="F87">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="88">
+        <v>251</v>
+      </c>
+      <c t="s" r="G87">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="88">
       <c t="s" r="A88">
         <v>50</v>
       </c>
       <c t="s" r="B88">
-        <v>295</v>
-      </c>
-      <c t="s" r="C88">
+        <v>296</v>
+      </c>
+      <c t="n" r="C88">
+        <v>102</v>
+      </c>
+      <c t="s" r="D88">
         <v>10</v>
       </c>
-      <c t="n" r="D88">
+      <c t="n" r="E88">
         <v>543000</v>
       </c>
-      <c t="s" r="E88">
-        <v>250</v>
-      </c>
       <c t="s" r="F88">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="89">
+        <v>251</v>
+      </c>
+      <c t="s" r="G88">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="89">
       <c t="s" r="A89">
         <v>50</v>
       </c>
       <c t="s" r="B89">
         <v>165</v>
       </c>
-      <c t="s" r="C89">
-        <v>10</v>
+      <c t="n" r="C89">
+        <v>102</v>
       </c>
       <c t="n" r="D89">
         <v>0</v>
       </c>
-      <c t="s" r="E89">
-        <v>250</v>
+      <c t="n" r="E89">
+        <v>543000</v>
       </c>
       <c t="s" r="F89">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="90">
+        <v>251</v>
+      </c>
+      <c t="s" r="G89">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="90">
       <c t="s" r="A90">
         <v>52</v>
       </c>
       <c t="s" r="B90">
         <v>113</v>
       </c>
-      <c t="s" r="C90">
+      <c t="n" r="C90">
+        <v>102</v>
+      </c>
+      <c t="s" r="D90">
         <v>18</v>
       </c>
-      <c t="n" r="D90">
+      <c t="n" r="E90">
         <v>700000</v>
       </c>
-      <c t="s" r="E90">
-        <v>250</v>
-      </c>
       <c t="s" r="F90">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="91">
+        <v>251</v>
+      </c>
+      <c t="s" r="G90">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="91">
       <c t="s" r="A91">
         <v>52</v>
       </c>
       <c t="s" r="B91">
-        <v>283</v>
-      </c>
-      <c t="s" r="C91">
-        <v>18</v>
+        <v>284</v>
+      </c>
+      <c t="n" r="C91">
+        <v>102</v>
       </c>
       <c t="n" r="D91">
         <v>0</v>
       </c>
-      <c t="s" r="E91">
-        <v>250</v>
+      <c t="n" r="E91">
+        <v>700000</v>
       </c>
       <c t="s" r="F91">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="92">
+        <v>251</v>
+      </c>
+      <c t="s" r="G91">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="92">
       <c t="s" r="A92">
         <v>52</v>
       </c>
       <c t="s" r="B92">
         <v>132</v>
       </c>
-      <c t="s" r="C92">
-        <v>18</v>
+      <c t="n" r="C92">
+        <v>102</v>
       </c>
       <c t="n" r="D92">
         <v>0</v>
       </c>
-      <c t="s" r="E92">
-        <v>250</v>
+      <c t="n" r="E92">
+        <v>700000</v>
       </c>
       <c t="s" r="F92">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="93">
+        <v>251</v>
+      </c>
+      <c t="s" r="G92">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="93">
       <c t="s" r="A93">
         <v>52</v>
       </c>
       <c t="s" r="B93">
-        <v>205</v>
-      </c>
-      <c t="s" r="C93">
-        <v>18</v>
+        <v>206</v>
+      </c>
+      <c t="n" r="C93">
+        <v>102</v>
       </c>
       <c t="n" r="D93">
         <v>0</v>
       </c>
-      <c t="s" r="E93">
-        <v>250</v>
+      <c t="n" r="E93">
+        <v>700000</v>
       </c>
       <c t="s" r="F93">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="94">
+        <v>251</v>
+      </c>
+      <c t="s" r="G93">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="94">
       <c t="s" r="A94">
         <v>74</v>
       </c>
       <c t="s" r="B94">
         <v>113</v>
       </c>
-      <c t="s" r="C94">
+      <c t="n" r="C94">
+        <v>102</v>
+      </c>
+      <c t="s" r="D94">
         <v>16</v>
       </c>
-      <c t="n" r="D94">
+      <c t="n" r="E94">
         <v>2760000</v>
       </c>
-      <c t="s" r="E94">
-        <v>250</v>
-      </c>
       <c t="s" r="F94">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="95">
+        <v>251</v>
+      </c>
+      <c t="s" r="G94">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="95">
       <c t="s" r="A95">
         <v>74</v>
       </c>
       <c t="s" r="B95">
-        <v>210</v>
-      </c>
-      <c t="s" r="C95">
-        <v>16</v>
+        <v>211</v>
+      </c>
+      <c t="n" r="C95">
+        <v>102</v>
       </c>
       <c t="n" r="D95">
         <v>0</v>
       </c>
-      <c t="s" r="E95">
-        <v>250</v>
+      <c t="n" r="E95">
+        <v>2760000</v>
       </c>
       <c t="s" r="F95">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="96">
+        <v>251</v>
+      </c>
+      <c t="s" r="G95">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="96">
       <c t="s" r="A96">
         <v>74</v>
       </c>
       <c t="s" r="B96">
         <v>139</v>
       </c>
-      <c t="s" r="C96">
-        <v>16</v>
+      <c t="n" r="C96">
+        <v>102</v>
       </c>
       <c t="n" r="D96">
         <v>0</v>
       </c>
-      <c t="s" r="E96">
-        <v>250</v>
+      <c t="n" r="E96">
+        <v>2760000</v>
       </c>
       <c t="s" r="F96">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="97">
+        <v>251</v>
+      </c>
+      <c t="s" r="G96">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="97">
       <c t="s" r="A97">
         <v>74</v>
       </c>
       <c t="s" r="B97">
-        <v>307</v>
-      </c>
-      <c t="s" r="C97">
-        <v>16</v>
+        <v>308</v>
+      </c>
+      <c t="n" r="C97">
+        <v>102</v>
       </c>
       <c t="n" r="D97">
         <v>0</v>
       </c>
-      <c t="s" r="E97">
-        <v>250</v>
+      <c t="n" r="E97">
+        <v>2760000</v>
       </c>
       <c t="s" r="F97">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="98">
+        <v>251</v>
+      </c>
+      <c t="s" r="G97">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="98">
       <c t="s" r="A98">
         <v>76</v>
       </c>
       <c t="s" r="B98">
         <v>93</v>
       </c>
-      <c t="s" r="C98">
+      <c t="n" r="C98">
+        <v>102</v>
+      </c>
+      <c t="s" r="D98">
         <v>20</v>
       </c>
-      <c t="n" r="D98">
+      <c t="n" r="E98">
         <v>471500</v>
       </c>
-      <c t="s" r="E98">
-        <v>250</v>
-      </c>
       <c t="s" r="F98">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="99">
+        <v>251</v>
+      </c>
+      <c t="s" r="G98">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="99">
       <c t="s" r="A99">
         <v>76</v>
       </c>
       <c t="s" r="B99">
-        <v>224</v>
-      </c>
-      <c t="s" r="C99">
-        <v>20</v>
+        <v>225</v>
+      </c>
+      <c t="n" r="C99">
+        <v>102</v>
       </c>
       <c t="n" r="D99">
         <v>0</v>
       </c>
-      <c t="s" r="E99">
-        <v>250</v>
+      <c t="n" r="E99">
+        <v>471500</v>
       </c>
       <c t="s" r="F99">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="100">
+        <v>251</v>
+      </c>
+      <c t="s" r="G99">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="100">
       <c t="s" r="A100">
         <v>76</v>
       </c>
       <c t="s" r="B100">
-        <v>315</v>
-      </c>
-      <c t="s" r="C100">
-        <v>20</v>
+        <v>316</v>
+      </c>
+      <c t="n" r="C100">
+        <v>102</v>
       </c>
       <c t="n" r="D100">
         <v>0</v>
       </c>
-      <c t="s" r="E100">
-        <v>250</v>
+      <c t="n" r="E100">
+        <v>471500</v>
       </c>
       <c t="s" r="F100">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="101">
+        <v>251</v>
+      </c>
+      <c t="s" r="G100">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="101">
       <c t="s" r="A101">
         <v>77</v>
       </c>
       <c t="s" r="B101">
-        <v>306</v>
-      </c>
-      <c t="s" r="C101">
+        <v>307</v>
+      </c>
+      <c t="n" r="C101">
+        <v>102</v>
+      </c>
+      <c t="s" r="D101">
         <v>20</v>
       </c>
-      <c t="n" r="D101">
+      <c t="n" r="E101">
         <v>619000</v>
       </c>
-      <c t="s" r="E101">
-        <v>250</v>
-      </c>
       <c t="s" r="F101">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="102">
+        <v>251</v>
+      </c>
+      <c t="s" r="G101">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="102">
       <c t="s" r="A102">
         <v>77</v>
       </c>
       <c t="s" r="B102">
         <v>137</v>
       </c>
-      <c t="s" r="C102">
-        <v>20</v>
+      <c t="n" r="C102">
+        <v>102</v>
       </c>
       <c t="n" r="D102">
         <v>0</v>
       </c>
-      <c t="s" r="E102">
-        <v>250</v>
+      <c t="n" r="E102">
+        <v>619000</v>
       </c>
       <c t="s" r="F102">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="103">
+        <v>251</v>
+      </c>
+      <c t="s" r="G102">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="103">
       <c t="s" r="A103">
         <v>178</v>
       </c>
       <c t="s" r="B103">
-        <v>272</v>
-      </c>
-      <c t="s" r="C103">
+        <v>273</v>
+      </c>
+      <c t="n" r="C103">
+        <v>102</v>
+      </c>
+      <c t="s" r="D103">
         <v>11</v>
       </c>
-      <c t="n" r="D103">
+      <c t="n" r="E103">
         <v>75000</v>
       </c>
-      <c t="s" r="E103">
-        <v>243</v>
-      </c>
       <c t="s" r="F103">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="104">
+        <v>244</v>
+      </c>
+      <c t="s" r="G103">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="104">
       <c t="s" r="A104">
         <v>29</v>
       </c>
       <c t="s" r="B104">
         <v>113</v>
       </c>
-      <c t="s" r="C104">
+      <c t="n" r="C104">
+        <v>102</v>
+      </c>
+      <c t="s" r="D104">
         <v>11</v>
       </c>
-      <c t="n" r="D104">
+      <c t="n" r="E104">
         <v>210000</v>
       </c>
-      <c t="s" r="E104">
-        <v>243</v>
-      </c>
       <c t="s" r="F104">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="105">
+        <v>244</v>
+      </c>
+      <c t="s" r="G104">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="105">
       <c t="s" r="A105">
         <v>50</v>
       </c>
       <c t="s" r="B105">
-        <v>295</v>
-      </c>
-      <c t="s" r="C105">
+        <v>296</v>
+      </c>
+      <c t="n" r="C105">
+        <v>102</v>
+      </c>
+      <c t="s" r="D105">
         <v>3</v>
       </c>
-      <c t="n" r="D105">
+      <c t="n" r="E105">
         <v>543000</v>
       </c>
-      <c t="s" r="E105">
-        <v>243</v>
-      </c>
       <c t="s" r="F105">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="106">
+        <v>244</v>
+      </c>
+      <c t="s" r="G105">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="106">
       <c t="s" r="A106">
         <v>49</v>
       </c>
       <c t="s" r="B106">
         <v>105</v>
       </c>
-      <c t="s" r="C106">
+      <c t="n" r="C106">
+        <v>102</v>
+      </c>
+      <c t="s" r="D106">
         <v>16</v>
       </c>
-      <c t="n" r="D106">
+      <c t="n" r="E106">
         <v>241500</v>
       </c>
-      <c t="s" r="E106">
-        <v>243</v>
-      </c>
       <c t="s" r="F106">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="107">
+        <v>244</v>
+      </c>
+      <c t="s" r="G106">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="107">
       <c t="s" r="A107">
         <v>52</v>
       </c>
       <c t="s" r="B107">
         <v>113</v>
       </c>
-      <c t="s" r="C107">
+      <c t="n" r="C107">
+        <v>102</v>
+      </c>
+      <c t="s" r="D107">
         <v>18</v>
       </c>
-      <c t="n" r="D107">
+      <c t="n" r="E107">
         <v>700000</v>
       </c>
-      <c t="s" r="E107">
-        <v>240</v>
-      </c>
       <c t="s" r="F107">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="108">
+        <v>241</v>
+      </c>
+      <c t="s" r="G107">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="108">
       <c t="s" r="A108">
         <v>52</v>
       </c>
       <c t="s" r="B108">
-        <v>282</v>
-      </c>
-      <c t="s" r="C108">
-        <v>18</v>
+        <v>283</v>
+      </c>
+      <c t="n" r="C108">
+        <v>102</v>
       </c>
       <c t="n" r="D108">
         <v>0</v>
       </c>
-      <c t="s" r="E108">
-        <v>240</v>
+      <c t="n" r="E108">
+        <v>700000</v>
       </c>
       <c t="s" r="F108">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="109">
+        <v>241</v>
+      </c>
+      <c t="s" r="G108">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="109">
       <c t="s" r="A109">
         <v>52</v>
       </c>
       <c t="s" r="B109">
         <v>132</v>
       </c>
-      <c t="s" r="C109">
-        <v>18</v>
+      <c t="n" r="C109">
+        <v>102</v>
       </c>
       <c t="n" r="D109">
         <v>0</v>
       </c>
-      <c t="s" r="E109">
-        <v>240</v>
+      <c t="n" r="E109">
+        <v>700000</v>
       </c>
       <c t="s" r="F109">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="110">
+        <v>241</v>
+      </c>
+      <c t="s" r="G109">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="110">
       <c t="s" r="A110">
         <v>52</v>
       </c>
       <c t="s" r="B110">
-        <v>205</v>
-      </c>
-      <c t="s" r="C110">
-        <v>18</v>
+        <v>206</v>
+      </c>
+      <c t="n" r="C110">
+        <v>102</v>
       </c>
       <c t="n" r="D110">
         <v>0</v>
       </c>
-      <c t="s" r="E110">
-        <v>240</v>
+      <c t="n" r="E110">
+        <v>700000</v>
       </c>
       <c t="s" r="F110">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="111">
+        <v>241</v>
+      </c>
+      <c t="s" r="G110">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="111">
       <c t="s" r="A111">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="B111">
-        <v>299</v>
-      </c>
-      <c t="s" r="C111">
+        <v>300</v>
+      </c>
+      <c t="n" r="C111">
+        <v>102</v>
+      </c>
+      <c t="s" r="D111">
         <v>15</v>
       </c>
-      <c t="n" r="D111">
+      <c t="n" r="E111">
         <v>80000</v>
       </c>
-      <c t="s" r="E111">
-        <v>244</v>
-      </c>
       <c t="s" r="F111">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="112">
+        <v>245</v>
+      </c>
+      <c t="s" r="G111">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="112">
       <c t="s" r="A112">
         <v>51</v>
       </c>
       <c t="s" r="B112">
         <v>128</v>
       </c>
-      <c t="s" r="C112">
+      <c t="n" r="C112">
+        <v>102</v>
+      </c>
+      <c t="s" r="D112">
         <v>20</v>
       </c>
-      <c t="n" r="D112">
+      <c t="n" r="E112">
         <v>78750</v>
       </c>
-      <c t="s" r="E112">
-        <v>243</v>
-      </c>
       <c t="s" r="F112">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="113">
+        <v>244</v>
+      </c>
+      <c t="s" r="G112">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="113">
       <c t="s" r="A113">
         <v>173</v>
       </c>
       <c t="s" r="B113">
-        <v>298</v>
-      </c>
-      <c t="s" r="C113">
+        <v>299</v>
+      </c>
+      <c t="n" r="C113">
+        <v>102</v>
+      </c>
+      <c t="s" r="D113">
         <v>3</v>
       </c>
-      <c t="n" r="D113">
+      <c t="n" r="E113">
         <v>200000</v>
       </c>
-      <c t="s" r="E113">
-        <v>239</v>
-      </c>
       <c t="s" r="F113">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="114">
+        <v>240</v>
+      </c>
+      <c t="s" r="G113">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="114">
       <c t="s" r="A114">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="B114">
-        <v>296</v>
-      </c>
-      <c t="s" r="C114">
+        <v>297</v>
+      </c>
+      <c t="n" r="C114">
+        <v>102</v>
+      </c>
+      <c t="s" r="D114">
         <v>2</v>
       </c>
-      <c t="n" r="D114">
+      <c t="n" r="E114">
         <v>80000</v>
       </c>
-      <c t="s" r="E114">
-        <v>239</v>
-      </c>
       <c t="s" r="F114">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="115">
+        <v>240</v>
+      </c>
+      <c t="s" r="G114">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="115">
       <c t="s" r="A115">
         <v>0</v>
       </c>
       <c t="s" r="B115">
-        <v>289</v>
-      </c>
-      <c t="s" r="C115">
+        <v>290</v>
+      </c>
+      <c t="n" r="C115">
+        <v>102</v>
+      </c>
+      <c t="s" r="D115">
         <v>3</v>
       </c>
-      <c t="n" r="D115">
+      <c t="n" r="E115">
         <v>822312</v>
       </c>
-      <c t="s" r="E115">
-        <v>187</v>
-      </c>
       <c t="s" r="F115">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="116">
+        <v>188</v>
+      </c>
+      <c t="s" r="G115">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="116">
       <c t="s" r="A116">
         <v>62</v>
       </c>
       <c t="s" r="B116">
-        <v>289</v>
-      </c>
-      <c t="s" r="C116">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c t="n" r="C116">
+        <v>102</v>
       </c>
       <c t="n" r="D116">
         <v>0</v>
       </c>
-      <c t="s" r="E116">
-        <v>187</v>
+      <c t="n" r="E116">
+        <v>822312</v>
       </c>
       <c t="s" r="F116">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="117">
+        <v>188</v>
+      </c>
+      <c t="s" r="G116">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="117">
       <c t="s" r="A117">
         <v>119</v>
       </c>
       <c t="s" r="B117">
-        <v>289</v>
-      </c>
-      <c t="s" r="C117">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c t="n" r="C117">
+        <v>102</v>
       </c>
       <c t="n" r="D117">
         <v>0</v>
       </c>
-      <c t="s" r="E117">
-        <v>187</v>
+      <c t="n" r="E117">
+        <v>822312</v>
       </c>
       <c t="s" r="F117">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="118">
+        <v>188</v>
+      </c>
+      <c t="s" r="G117">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="118">
       <c t="s" r="A118">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="B118">
         <v>98</v>
       </c>
-      <c t="s" r="C118">
+      <c t="n" r="C118">
+        <v>102</v>
+      </c>
+      <c t="s" r="D118">
         <v>20</v>
       </c>
-      <c t="n" r="D118">
+      <c t="n" r="E118">
         <v>201000</v>
       </c>
-      <c t="s" r="E118">
-        <v>187</v>
-      </c>
       <c t="s" r="F118">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="119">
+        <v>188</v>
+      </c>
+      <c t="s" r="G118">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="119">
       <c t="s" r="A119">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="B119">
         <v>109</v>
       </c>
-      <c t="s" r="C119">
+      <c t="n" r="C119">
+        <v>102</v>
+      </c>
+      <c t="s" r="D119">
         <v>20</v>
       </c>
-      <c t="n" r="D119">
+      <c t="n" r="E119">
         <v>564416</v>
       </c>
-      <c t="s" r="E119">
-        <v>187</v>
-      </c>
       <c t="s" r="F119">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="120">
+        <v>188</v>
+      </c>
+      <c t="s" r="G119">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="120">
       <c t="s" r="A120">
         <v>122</v>
       </c>
       <c t="s" r="B120">
         <v>107</v>
       </c>
-      <c t="s" r="C120">
+      <c t="n" r="C120">
+        <v>102</v>
+      </c>
+      <c t="s" r="D120">
         <v>20</v>
       </c>
-      <c t="n" r="D120">
+      <c t="n" r="E120">
         <v>120000</v>
       </c>
-      <c t="s" r="E120">
-        <v>187</v>
-      </c>
       <c t="s" r="F120">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="121">
+        <v>188</v>
+      </c>
+      <c t="s" r="G120">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="121">
       <c t="s" r="A121">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="B121">
         <v>107</v>
       </c>
-      <c t="s" r="C121">
+      <c t="n" r="C121">
+        <v>102</v>
+      </c>
+      <c t="s" r="D121">
         <v>20</v>
       </c>
-      <c t="n" r="D121">
+      <c t="n" r="E121">
         <v>120000</v>
       </c>
-      <c t="s" r="E121">
-        <v>187</v>
-      </c>
       <c t="s" r="F121">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="122">
+        <v>188</v>
+      </c>
+      <c t="s" r="G121">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="122">
       <c t="s" r="A122">
         <v>123</v>
       </c>
       <c t="s" r="B122">
         <v>115</v>
       </c>
-      <c t="s" r="C122">
+      <c t="n" r="C122">
+        <v>102</v>
+      </c>
+      <c t="s" r="D122">
         <v>20</v>
       </c>
-      <c t="n" r="D122">
+      <c t="n" r="E122">
         <v>504416</v>
       </c>
-      <c t="s" r="E122">
-        <v>187</v>
-      </c>
       <c t="s" r="F122">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="123">
+        <v>188</v>
+      </c>
+      <c t="s" r="G122">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="123">
       <c t="s" r="A123">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="B123">
         <v>107</v>
       </c>
-      <c t="s" r="C123">
+      <c t="n" r="C123">
+        <v>102</v>
+      </c>
+      <c t="s" r="D123">
         <v>20</v>
       </c>
-      <c t="n" r="D123">
+      <c t="n" r="E123">
         <v>120000</v>
       </c>
-      <c t="s" r="E123">
-        <v>187</v>
-      </c>
       <c t="s" r="F123">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="124">
+        <v>188</v>
+      </c>
+      <c t="s" r="G123">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="124">
       <c t="s" r="A124">
         <v>164</v>
       </c>
       <c t="s" r="B124">
         <v>108</v>
       </c>
-      <c t="s" r="C124">
+      <c t="n" r="C124">
+        <v>102</v>
+      </c>
+      <c t="s" r="D124">
         <v>20</v>
       </c>
-      <c t="n" r="D124">
+      <c t="n" r="E124">
         <v>427052</v>
       </c>
-      <c t="s" r="E124">
-        <v>187</v>
-      </c>
       <c t="s" r="F124">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="125">
+        <v>188</v>
+      </c>
+      <c t="s" r="G124">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="125">
       <c t="s" r="A125">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="B125">
-        <v>289</v>
-      </c>
-      <c t="s" r="C125">
+        <v>290</v>
+      </c>
+      <c t="n" r="C125">
+        <v>102</v>
+      </c>
+      <c t="s" r="D125">
         <v>11</v>
       </c>
-      <c t="n" r="D125">
+      <c t="n" r="E125">
         <v>47500</v>
       </c>
-      <c t="s" r="E125">
-        <v>245</v>
-      </c>
       <c t="s" r="F125">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="126">
+        <v>246</v>
+      </c>
+      <c t="s" r="G125">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="126">
       <c t="s" r="A126">
         <v>33</v>
       </c>
       <c t="s" r="B126">
         <v>141</v>
       </c>
-      <c t="s" r="C126">
+      <c t="n" r="C126">
+        <v>102</v>
+      </c>
+      <c t="s" r="D126">
         <v>11</v>
       </c>
-      <c t="n" r="D126">
+      <c t="n" r="E126">
         <v>47500</v>
       </c>
-      <c t="s" r="E126">
-        <v>245</v>
-      </c>
       <c t="s" r="F126">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="127">
+        <v>246</v>
+      </c>
+      <c t="s" r="G126">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="127">
       <c t="s" r="A127">
         <v>33</v>
       </c>
       <c t="s" r="B127">
         <v>82</v>
       </c>
-      <c t="s" r="C127">
+      <c t="n" r="C127">
+        <v>102</v>
+      </c>
+      <c t="s" r="D127">
         <v>11</v>
       </c>
-      <c t="n" r="D127">
+      <c t="n" r="E127">
         <v>50000</v>
       </c>
-      <c t="s" r="E127">
-        <v>245</v>
-      </c>
       <c t="s" r="F127">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="128">
+        <v>246</v>
+      </c>
+      <c t="s" r="G127">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="128">
       <c t="s" r="A128">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="B128">
-        <v>290</v>
-      </c>
-      <c t="s" r="C128">
+        <v>291</v>
+      </c>
+      <c t="n" r="C128">
+        <v>102</v>
+      </c>
+      <c t="s" r="D128">
         <v>16</v>
       </c>
-      <c t="n" r="D128">
+      <c t="n" r="E128">
         <v>56000</v>
       </c>
-      <c t="s" r="E128">
-        <v>245</v>
-      </c>
       <c t="s" r="F128">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="129">
+        <v>246</v>
+      </c>
+      <c t="s" r="G128">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="129">
       <c t="s" r="A129">
         <v>33</v>
       </c>
       <c t="s" r="B129">
         <v>141</v>
       </c>
-      <c t="s" r="C129">
+      <c t="n" r="C129">
+        <v>102</v>
+      </c>
+      <c t="s" r="D129">
         <v>16</v>
       </c>
-      <c t="n" r="D129">
+      <c t="n" r="E129">
         <v>290000</v>
       </c>
-      <c t="s" r="E129">
-        <v>245</v>
-      </c>
       <c t="s" r="F129">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="130">
+        <v>246</v>
+      </c>
+      <c t="s" r="G129">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="130">
       <c t="s" r="A130">
         <v>72</v>
       </c>
       <c t="s" r="B130">
-        <v>286</v>
-      </c>
-      <c t="s" r="C130">
+        <v>287</v>
+      </c>
+      <c t="n" r="C130">
+        <v>102</v>
+      </c>
+      <c t="s" r="D130">
         <v>16</v>
       </c>
-      <c t="n" r="D130">
+      <c t="n" r="E130">
         <v>193600</v>
       </c>
-      <c t="s" r="E130">
-        <v>245</v>
-      </c>
       <c t="s" r="F130">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="131">
+        <v>246</v>
+      </c>
+      <c t="s" r="G130">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="131">
       <c t="s" r="A131">
         <v>72</v>
       </c>
       <c t="s" r="B131">
         <v>138</v>
       </c>
-      <c t="s" r="C131">
+      <c t="n" r="C131">
+        <v>102</v>
+      </c>
+      <c t="s" r="D131">
         <v>16</v>
       </c>
-      <c t="n" r="D131">
+      <c t="n" r="E131">
         <v>100000</v>
       </c>
-      <c t="s" r="E131">
-        <v>245</v>
-      </c>
       <c t="s" r="F131">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="132">
+        <v>246</v>
+      </c>
+      <c t="s" r="G131">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="132">
       <c t="s" r="A132">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="B132">
         <v>113</v>
       </c>
-      <c t="s" r="C132">
+      <c t="n" r="C132">
+        <v>102</v>
+      </c>
+      <c t="s" r="D132">
         <v>20</v>
       </c>
-      <c t="n" r="D132">
+      <c t="n" r="E132">
         <v>150000</v>
       </c>
-      <c t="s" r="E132">
-        <v>245</v>
-      </c>
       <c t="s" r="F132">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="133">
+        <v>246</v>
+      </c>
+      <c t="s" r="G132">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="133">
       <c t="s" r="A133">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="B133">
-        <v>290</v>
-      </c>
-      <c t="s" r="C133">
+        <v>291</v>
+      </c>
+      <c t="n" r="C133">
+        <v>102</v>
+      </c>
+      <c t="s" r="D133">
         <v>20</v>
       </c>
-      <c t="n" r="D133">
+      <c t="n" r="E133">
         <v>32000</v>
       </c>
-      <c t="s" r="E133">
-        <v>245</v>
-      </c>
       <c t="s" r="F133">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="134">
+        <v>246</v>
+      </c>
+      <c t="s" r="G133">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="134">
       <c t="s" r="A134">
         <v>55</v>
       </c>
       <c t="s" r="B134">
-        <v>303</v>
-      </c>
-      <c t="s" r="C134">
+        <v>304</v>
+      </c>
+      <c t="n" r="C134">
+        <v>102</v>
+      </c>
+      <c t="s" r="D134">
         <v>20</v>
       </c>
-      <c t="n" r="D134">
+      <c t="n" r="E134">
         <v>24000</v>
       </c>
-      <c t="s" r="E134">
-        <v>245</v>
-      </c>
       <c t="s" r="F134">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="135">
+        <v>246</v>
+      </c>
+      <c t="s" r="G134">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="135">
       <c t="s" r="A135">
         <v>72</v>
       </c>
       <c t="s" r="B135">
-        <v>278</v>
-      </c>
-      <c t="s" r="C135">
+        <v>279</v>
+      </c>
+      <c t="n" r="C135">
+        <v>102</v>
+      </c>
+      <c t="s" r="D135">
         <v>20</v>
       </c>
-      <c t="n" r="D135">
+      <c t="n" r="E135">
         <v>139000</v>
       </c>
-      <c t="s" r="E135">
-        <v>245</v>
-      </c>
       <c t="s" r="F135">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="136">
+        <v>246</v>
+      </c>
+      <c t="s" r="G135">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="136">
       <c t="s" r="A136">
         <v>80</v>
       </c>
       <c t="s" r="B136">
         <v>92</v>
       </c>
-      <c t="s" r="C136">
+      <c t="n" r="C136">
+        <v>102</v>
+      </c>
+      <c t="s" r="D136">
         <v>20</v>
       </c>
-      <c t="n" r="D136">
+      <c t="n" r="E136">
         <v>504416</v>
       </c>
-      <c t="s" r="E136">
-        <v>241</v>
-      </c>
       <c t="s" r="F136">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="137">
+        <v>242</v>
+      </c>
+      <c t="s" r="G136">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="137">
       <c t="s" r="A137">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="B137">
         <v>92</v>
       </c>
-      <c t="s" r="C137">
+      <c t="n" r="C137">
+        <v>102</v>
+      </c>
+      <c t="s" r="D137">
         <v>20</v>
       </c>
-      <c t="n" r="D137">
+      <c t="n" r="E137">
         <v>504416</v>
       </c>
-      <c t="s" r="E137">
-        <v>241</v>
-      </c>
       <c t="s" r="F137">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="138">
+        <v>242</v>
+      </c>
+      <c t="s" r="G137">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="138">
       <c t="s" r="A138">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="B138">
         <v>110</v>
       </c>
-      <c t="s" r="C138">
+      <c t="n" r="C138">
+        <v>102</v>
+      </c>
+      <c t="s" r="D138">
         <v>20</v>
       </c>
-      <c t="n" r="D138">
+      <c t="n" r="E138">
         <v>63064</v>
       </c>
-      <c t="s" r="E138">
-        <v>241</v>
-      </c>
       <c t="s" r="F138">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="139">
+        <v>242</v>
+      </c>
+      <c t="s" r="G138">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="139">
       <c t="s" r="A139">
         <v>127</v>
       </c>
       <c t="s" r="B139">
-        <v>289</v>
-      </c>
-      <c t="s" r="C139">
+        <v>290</v>
+      </c>
+      <c t="n" r="C139">
+        <v>102</v>
+      </c>
+      <c t="s" r="D139">
         <v>3</v>
       </c>
-      <c t="n" r="D139">
+      <c t="n" r="E139">
         <v>18000</v>
       </c>
-      <c t="s" r="E139">
-        <v>241</v>
-      </c>
       <c t="s" r="F139">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="140">
+        <v>242</v>
+      </c>
+      <c t="s" r="G139">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="140">
       <c t="s" r="A140">
         <v>121</v>
       </c>
       <c t="s" r="B140">
-        <v>279</v>
-      </c>
-      <c t="s" r="C140">
+        <v>280</v>
+      </c>
+      <c t="n" r="C140">
+        <v>102</v>
+      </c>
+      <c t="s" r="D140">
         <v>3</v>
       </c>
-      <c t="n" r="D140">
+      <c t="n" r="E140">
         <v>16000</v>
       </c>
-      <c t="s" r="E140">
-        <v>242</v>
-      </c>
       <c t="s" r="F140">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="141">
+        <v>243</v>
+      </c>
+      <c t="s" r="G140">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="141">
       <c t="s" r="A141">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="B141">
-        <v>274</v>
-      </c>
-      <c t="s" r="C141">
+        <v>275</v>
+      </c>
+      <c t="n" r="C141">
+        <v>102</v>
+      </c>
+      <c t="s" r="D141">
         <v>14</v>
       </c>
-      <c t="n" r="D141">
+      <c t="n" r="E141">
         <v>32000</v>
       </c>
-      <c t="s" r="E141">
-        <v>260</v>
-      </c>
       <c t="s" r="F141">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="142">
+        <v>261</v>
+      </c>
+      <c t="s" r="G141">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="142">
       <c t="s" r="A142">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="B142">
-        <v>263</v>
-      </c>
-      <c t="s" r="C142">
+        <v>264</v>
+      </c>
+      <c t="n" r="C142">
+        <v>102</v>
+      </c>
+      <c t="s" r="D142">
         <v>4</v>
       </c>
-      <c t="n" r="D142">
+      <c t="n" r="E142">
         <v>22000</v>
       </c>
-      <c t="s" r="E142">
-        <v>260</v>
-      </c>
       <c t="s" r="F142">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="143">
+        <v>261</v>
+      </c>
+      <c t="s" r="G142">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="143">
       <c t="s" r="A143">
         <v>67</v>
       </c>
       <c t="s" r="B143">
         <v>144</v>
       </c>
-      <c t="s" r="C143">
+      <c t="n" r="C143">
+        <v>102</v>
+      </c>
+      <c t="s" r="D143">
         <v>3</v>
       </c>
-      <c t="n" r="D143">
+      <c t="n" r="E143">
         <v>148750</v>
       </c>
-      <c t="s" r="E143">
-        <v>260</v>
-      </c>
       <c t="s" r="F143">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="144">
+        <v>261</v>
+      </c>
+      <c t="s" r="G143">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="144">
       <c t="s" r="A144">
         <v>56</v>
       </c>
       <c t="s" r="B144">
         <v>145</v>
       </c>
-      <c t="s" r="C144">
+      <c t="n" r="C144">
+        <v>102</v>
+      </c>
+      <c t="s" r="D144">
         <v>3</v>
       </c>
-      <c t="n" r="D144">
+      <c t="n" r="E144">
         <v>173750</v>
       </c>
-      <c t="s" r="E144">
-        <v>260</v>
-      </c>
       <c t="s" r="F144">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="145">
+        <v>261</v>
+      </c>
+      <c t="s" r="G144">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="145">
       <c t="s" r="A145">
         <v>179</v>
       </c>
       <c t="s" r="B145">
         <v>145</v>
       </c>
-      <c t="s" r="C145">
+      <c t="n" r="C145">
+        <v>102</v>
+      </c>
+      <c t="s" r="D145">
         <v>16</v>
       </c>
-      <c t="n" r="D145">
+      <c t="n" r="E145">
         <v>50000</v>
       </c>
-      <c t="s" r="E145">
-        <v>260</v>
-      </c>
       <c t="s" r="F145">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="146">
+        <v>261</v>
+      </c>
+      <c t="s" r="G145">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="146">
       <c t="s" r="A146">
         <v>68</v>
       </c>
       <c t="s" r="B146">
         <v>146</v>
       </c>
-      <c t="s" r="C146">
+      <c t="n" r="C146">
+        <v>102</v>
+      </c>
+      <c t="s" r="D146">
         <v>3</v>
       </c>
-      <c t="n" r="D146">
+      <c t="n" r="E146">
         <v>145000</v>
       </c>
-      <c t="s" r="E146">
-        <v>260</v>
-      </c>
       <c t="s" r="F146">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="147">
+        <v>261</v>
+      </c>
+      <c t="s" r="G146">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="147">
       <c t="s" r="A147">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="B147">
         <v>104</v>
       </c>
-      <c t="s" r="C147">
+      <c t="n" r="C147">
+        <v>102</v>
+      </c>
+      <c t="s" r="D147">
         <v>20</v>
       </c>
-      <c t="n" r="D147">
+      <c t="n" r="E147">
         <v>50000</v>
       </c>
-      <c t="s" r="E147">
-        <v>260</v>
-      </c>
       <c t="s" r="F147">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="148">
+        <v>261</v>
+      </c>
+      <c t="s" r="G147">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="148">
       <c t="s" r="A148">
         <v>175</v>
       </c>
       <c t="s" r="B148">
         <v>161</v>
       </c>
-      <c t="s" r="C148">
+      <c t="n" r="C148">
+        <v>102</v>
+      </c>
+      <c t="s" r="D148">
         <v>3</v>
       </c>
-      <c t="n" r="D148">
+      <c t="n" r="E148">
         <v>148750</v>
       </c>
-      <c t="s" r="E148">
-        <v>260</v>
-      </c>
       <c t="s" r="F148">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="149">
+        <v>261</v>
+      </c>
+      <c t="s" r="G148">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="149">
       <c t="s" r="A149">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="B149">
         <v>100</v>
       </c>
-      <c t="s" r="C149">
+      <c t="n" r="C149">
+        <v>102</v>
+      </c>
+      <c t="s" r="D149">
         <v>3</v>
       </c>
-      <c t="n" r="D149">
+      <c t="n" r="E149">
         <v>40000</v>
       </c>
-      <c t="s" r="E149">
-        <v>260</v>
-      </c>
       <c t="s" r="F149">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="150">
+        <v>261</v>
+      </c>
+      <c t="s" r="G149">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="150">
       <c t="s" r="A150">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="B150">
         <v>101</v>
       </c>
-      <c t="s" r="C150">
+      <c t="n" r="C150">
+        <v>102</v>
+      </c>
+      <c t="s" r="D150">
         <v>15</v>
       </c>
-      <c t="n" r="D150">
+      <c t="n" r="E150">
         <v>10000</v>
       </c>
-      <c t="s" r="E150">
-        <v>260</v>
-      </c>
       <c t="s" r="F150">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="151">
+        <v>261</v>
+      </c>
+      <c t="s" r="G150">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="151">
       <c t="s" r="A151">
         <v>8</v>
       </c>
       <c t="s" r="B151">
         <v>147</v>
       </c>
-      <c t="s" r="C151">
+      <c t="n" r="C151">
+        <v>102</v>
+      </c>
+      <c t="s" r="D151">
         <v>20</v>
       </c>
-      <c t="n" r="D151">
+      <c t="n" r="E151">
         <v>4000</v>
       </c>
-      <c t="s" r="E151">
-        <v>260</v>
-      </c>
       <c t="s" r="F151">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="152">
+        <v>261</v>
+      </c>
+      <c t="s" r="G151">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="152">
       <c t="s" r="A152">
         <v>78</v>
       </c>
       <c t="s" r="B152">
-        <v>319</v>
-      </c>
-      <c t="s" r="C152">
+        <v>320</v>
+      </c>
+      <c t="n" r="C152">
+        <v>102</v>
+      </c>
+      <c t="s" r="D152">
         <v>13</v>
       </c>
-      <c t="n" r="D152">
+      <c t="n" r="E152">
         <v>2655000</v>
       </c>
-      <c t="s" r="E152">
-        <v>180</v>
-      </c>
       <c t="s" r="F152">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="153">
+        <v>181</v>
+      </c>
+      <c t="s" r="G152">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="153">
       <c t="s" r="A153">
         <v>78</v>
       </c>
       <c t="s" r="B153">
         <v>135</v>
       </c>
-      <c t="s" r="C153">
+      <c t="n" r="C153">
+        <v>102</v>
+      </c>
+      <c t="s" r="D153">
         <v>16</v>
       </c>
-      <c t="n" r="D153">
+      <c t="n" r="E153">
         <v>11666</v>
       </c>
-      <c t="s" r="E153">
-        <v>180</v>
-      </c>
       <c t="s" r="F153">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="154">
+        <v>181</v>
+      </c>
+      <c t="s" r="G153">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="154">
       <c t="s" r="A154">
         <v>54</v>
       </c>
       <c t="s" r="B154">
         <v>116</v>
       </c>
-      <c t="s" r="C154">
+      <c t="n" r="C154">
+        <v>102</v>
+      </c>
+      <c t="s" r="D154">
         <v>16</v>
       </c>
-      <c t="s" r="D154">
+      <c t="s" r="E154">
         <v>42</v>
       </c>
-      <c t="s" r="E154">
-        <v>180</v>
-      </c>
       <c t="s" r="F154">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="155">
+        <v>181</v>
+      </c>
+      <c t="s" r="G154">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="155">
       <c t="s" r="A155">
         <v>54</v>
       </c>
       <c t="s" r="B155">
         <v>149</v>
       </c>
-      <c t="s" r="C155">
+      <c t="n" r="C155">
+        <v>102</v>
+      </c>
+      <c t="s" r="D155">
         <v>17</v>
       </c>
-      <c t="n" r="D155">
+      <c t="n" r="E155">
         <v>20417</v>
       </c>
-      <c t="s" r="E155">
-        <v>180</v>
-      </c>
       <c t="s" r="F155">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="156">
+        <v>181</v>
+      </c>
+      <c t="s" r="G155">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="156">
       <c t="s" r="A156">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="B156">
-        <v>274</v>
-      </c>
-      <c t="s" r="C156">
+        <v>275</v>
+      </c>
+      <c t="n" r="C156">
+        <v>102</v>
+      </c>
+      <c t="s" r="D156">
         <v>11</v>
       </c>
-      <c t="n" r="D156">
+      <c t="n" r="E156">
         <v>8400</v>
       </c>
-      <c t="s" r="E156">
-        <v>180</v>
-      </c>
       <c t="s" r="F156">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="157">
+        <v>181</v>
+      </c>
+      <c t="s" r="G156">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="157">
       <c t="s" r="A157">
         <v>163</v>
       </c>
       <c t="s" r="B157">
         <v>89</v>
       </c>
-      <c t="s" r="C157">
+      <c t="n" r="C157">
+        <v>102</v>
+      </c>
+      <c t="s" r="D157">
         <v>17</v>
       </c>
-      <c t="n" r="D157">
+      <c t="n" r="E157">
         <v>327750</v>
       </c>
-      <c t="s" r="E157">
-        <v>180</v>
-      </c>
       <c t="s" r="F157">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="158">
+        <v>181</v>
+      </c>
+      <c t="s" r="G157">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="158">
       <c t="s" r="A158">
         <v>163</v>
       </c>
       <c t="s" r="B158">
         <v>149</v>
       </c>
-      <c t="s" r="C158">
+      <c t="n" r="C158">
+        <v>102</v>
+      </c>
+      <c t="s" r="D158">
         <v>17</v>
       </c>
-      <c t="n" r="D158">
+      <c t="n" r="E158">
         <v>20417</v>
       </c>
-      <c t="s" r="E158">
-        <v>180</v>
-      </c>
       <c t="s" r="F158">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="159">
+        <v>181</v>
+      </c>
+      <c t="s" r="G158">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="159">
       <c t="s" r="A159">
         <v>38</v>
       </c>
       <c t="s" r="B159">
         <v>100</v>
       </c>
-      <c t="s" r="C159">
+      <c t="n" r="C159">
+        <v>102</v>
+      </c>
+      <c t="s" r="D159">
         <v>12</v>
       </c>
-      <c t="s" r="D159">
+      <c t="s" r="E159">
         <v>28</v>
       </c>
-      <c t="s" r="E159">
-        <v>180</v>
-      </c>
       <c t="s" r="F159">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="160">
+        <v>181</v>
+      </c>
+      <c t="s" r="G159">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="160">
       <c t="s" r="A160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="B160">
         <v>110</v>
       </c>
-      <c t="s" r="C160">
+      <c t="n" r="C160">
+        <v>102</v>
+      </c>
+      <c t="s" r="D160">
         <v>17</v>
       </c>
-      <c t="s" r="D160">
+      <c t="s" r="E160">
         <v>28</v>
       </c>
-      <c t="s" r="E160">
-        <v>180</v>
-      </c>
       <c t="s" r="F160">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="161">
+        <v>181</v>
+      </c>
+      <c t="s" r="G160">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="161">
       <c t="s" r="A161">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="B161">
         <v>100</v>
       </c>
-      <c t="s" r="C161">
+      <c t="n" r="C161">
+        <v>102</v>
+      </c>
+      <c t="s" r="D161">
         <v>21</v>
       </c>
-      <c t="n" r="D161">
+      <c t="n" r="E161">
         <v>15000</v>
       </c>
-      <c t="s" r="E161">
-        <v>180</v>
-      </c>
       <c t="s" r="F161">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="162">
+        <v>181</v>
+      </c>
+      <c t="s" r="G161">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="162">
       <c t="s" r="A162">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="B162">
         <v>100</v>
       </c>
-      <c t="s" r="C162">
+      <c t="n" r="C162">
+        <v>102</v>
+      </c>
+      <c t="s" r="D162">
         <v>21</v>
       </c>
-      <c t="s" r="D162">
+      <c t="s" r="E162">
         <v>28</v>
       </c>
-      <c t="s" r="E162">
-        <v>180</v>
-      </c>
       <c t="s" r="F162">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="163">
+        <v>181</v>
+      </c>
+      <c t="s" r="G162">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="163">
       <c t="s" r="A163">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="B163">
-        <v>301</v>
-      </c>
-      <c t="s" r="C163">
+        <v>302</v>
+      </c>
+      <c t="n" r="C163">
+        <v>102</v>
+      </c>
+      <c t="s" r="D163">
         <v>10</v>
       </c>
-      <c t="s" r="D163">
+      <c t="s" r="E163">
         <v>40</v>
       </c>
-      <c t="s" r="E163">
-        <v>180</v>
-      </c>
       <c t="s" r="F163">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="164">
+        <v>181</v>
+      </c>
+      <c t="s" r="G163">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="164">
       <c t="s" r="A164">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="B164">
         <v>136</v>
       </c>
-      <c t="s" r="C164">
+      <c t="n" r="C164">
+        <v>102</v>
+      </c>
+      <c t="s" r="D164">
         <v>11</v>
       </c>
-      <c t="n" r="D164">
+      <c t="n" r="E164">
         <v>11666</v>
       </c>
-      <c t="s" r="E164">
-        <v>180</v>
-      </c>
       <c t="s" r="F164">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="165">
+        <v>181</v>
+      </c>
+      <c t="s" r="G164">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="165">
       <c t="s" r="A165">
         <v>64</v>
       </c>
       <c t="s" r="B165">
-        <v>287</v>
-      </c>
-      <c t="s" r="C165">
+        <v>288</v>
+      </c>
+      <c t="n" r="C165">
+        <v>102</v>
+      </c>
+      <c t="s" r="D165">
         <v>10</v>
       </c>
-      <c t="n" r="D165">
+      <c t="n" r="E165">
         <v>102000</v>
       </c>
-      <c t="s" r="E165">
-        <v>180</v>
-      </c>
       <c t="s" r="F165">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="166">
+        <v>181</v>
+      </c>
+      <c t="s" r="G165">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="166">
       <c t="s" r="A166">
         <v>5</v>
       </c>
       <c t="s" r="B166">
         <v>133</v>
       </c>
-      <c t="s" r="C166">
+      <c t="n" r="C166">
+        <v>102</v>
+      </c>
+      <c t="s" r="D166">
         <v>16</v>
       </c>
-      <c t="s" r="D166">
+      <c t="s" r="E166">
         <v>1</v>
       </c>
-      <c t="s" r="E166">
-        <v>180</v>
-      </c>
       <c t="s" r="F166">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="167">
+        <v>181</v>
+      </c>
+      <c t="s" r="G166">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="167">
       <c t="s" r="A167">
         <v>166</v>
       </c>
       <c t="s" r="B167">
-        <v>301</v>
-      </c>
-      <c t="s" r="C167">
+        <v>302</v>
+      </c>
+      <c t="n" r="C167">
+        <v>102</v>
+      </c>
+      <c t="s" r="D167">
         <v>16</v>
       </c>
-      <c t="s" r="D167">
+      <c t="s" r="E167">
         <v>39</v>
       </c>
-      <c t="s" r="E167">
-        <v>180</v>
-      </c>
       <c t="s" r="F167">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="168">
+        <v>181</v>
+      </c>
+      <c t="s" r="G167">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="168">
       <c t="s" r="A168">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="B168">
-        <v>299</v>
-      </c>
-      <c t="s" r="C168">
+        <v>300</v>
+      </c>
+      <c t="n" r="C168">
+        <v>102</v>
+      </c>
+      <c t="s" r="D168">
         <v>16</v>
       </c>
-      <c t="n" r="D168">
+      <c t="n" r="E168">
         <v>34000</v>
       </c>
-      <c t="s" r="E168">
-        <v>180</v>
-      </c>
       <c t="s" r="F168">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="169">
+        <v>181</v>
+      </c>
+      <c t="s" r="G168">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="169">
       <c t="s" r="A169">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="B169">
         <v>160</v>
       </c>
-      <c t="s" r="C169">
+      <c t="n" r="C169">
+        <v>102</v>
+      </c>
+      <c t="s" r="D169">
         <v>21</v>
       </c>
-      <c t="n" r="D169">
+      <c t="n" r="E169">
         <v>19358</v>
       </c>
-      <c t="s" r="E169">
-        <v>180</v>
-      </c>
       <c t="s" r="F169">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="170">
+        <v>181</v>
+      </c>
+      <c t="s" r="G169">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="170">
       <c t="s" r="A170">
         <v>172</v>
       </c>
       <c t="s" r="B170">
-        <v>304</v>
-      </c>
-      <c t="s" r="C170">
+        <v>305</v>
+      </c>
+      <c t="n" r="C170">
+        <v>102</v>
+      </c>
+      <c t="s" r="D170">
         <v>11</v>
       </c>
-      <c t="n" r="D170">
+      <c t="n" r="E170">
         <v>271940</v>
       </c>
-      <c t="s" r="E170">
-        <v>180</v>
-      </c>
       <c t="s" r="F170">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="171">
+        <v>181</v>
+      </c>
+      <c t="s" r="G170">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="171">
       <c t="s" r="A171">
         <v>118</v>
       </c>
       <c t="s" r="B171">
         <v>135</v>
       </c>
-      <c t="s" r="C171">
+      <c t="n" r="C171">
+        <v>102</v>
+      </c>
+      <c t="s" r="D171">
         <v>12</v>
       </c>
-      <c t="n" r="D171">
+      <c t="n" r="E171">
         <v>7692</v>
       </c>
-      <c t="s" r="E171">
-        <v>180</v>
-      </c>
       <c t="s" r="F171">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="172">
+        <v>181</v>
+      </c>
+      <c t="s" r="G171">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="172">
       <c t="s" r="A172">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="B172">
-        <v>280</v>
-      </c>
-      <c t="s" r="C172">
+        <v>281</v>
+      </c>
+      <c t="n" r="C172">
+        <v>102</v>
+      </c>
+      <c t="s" r="D172">
         <v>12</v>
       </c>
-      <c t="n" r="D172">
+      <c t="n" r="E172">
         <v>135970</v>
       </c>
-      <c t="s" r="E172">
-        <v>180</v>
-      </c>
       <c t="s" r="F172">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="173">
+        <v>181</v>
+      </c>
+      <c t="s" r="G172">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="173">
       <c t="s" r="A173">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="B173">
         <v>133</v>
       </c>
-      <c t="s" r="C173">
+      <c t="n" r="C173">
+        <v>102</v>
+      </c>
+      <c t="s" r="D173">
         <v>11</v>
       </c>
-      <c t="s" r="D173">
+      <c t="s" r="E173">
         <v>1</v>
       </c>
-      <c t="s" r="E173">
-        <v>180</v>
-      </c>
       <c t="s" r="F173">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="174">
+        <v>181</v>
+      </c>
+      <c t="s" r="G173">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="174">
       <c t="s" r="A174">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="B174">
         <v>100</v>
       </c>
-      <c t="s" r="C174">
+      <c t="n" r="C174">
+        <v>102</v>
+      </c>
+      <c t="s" r="D174">
         <v>11</v>
       </c>
-      <c t="n" r="D174">
+      <c t="n" r="E174">
         <v>15000</v>
       </c>
-      <c t="s" r="E174">
-        <v>180</v>
-      </c>
       <c t="s" r="F174">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="175">
+        <v>181</v>
+      </c>
+      <c t="s" r="G174">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="175">
       <c t="s" r="A175">
         <v>69</v>
       </c>
       <c t="s" r="B175">
         <v>110</v>
       </c>
-      <c t="s" r="C175">
+      <c t="n" r="C175">
+        <v>102</v>
+      </c>
+      <c t="s" r="D175">
         <v>16</v>
       </c>
-      <c t="n" r="D175">
+      <c t="n" r="E175">
         <v>15000</v>
       </c>
-      <c t="s" r="E175">
-        <v>180</v>
-      </c>
       <c t="s" r="F175">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="176">
+        <v>181</v>
+      </c>
+      <c t="s" r="G175">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="176">
       <c t="s" r="A176">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="B176">
         <v>110</v>
       </c>
-      <c t="s" r="C176">
+      <c t="n" r="C176">
+        <v>102</v>
+      </c>
+      <c t="s" r="D176">
         <v>17</v>
       </c>
-      <c t="n" r="D176">
+      <c t="n" r="E176">
         <v>432150</v>
       </c>
-      <c t="s" r="E176">
-        <v>180</v>
-      </c>
       <c t="s" r="F176">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="177">
+        <v>181</v>
+      </c>
+      <c t="s" r="G176">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="177">
       <c t="s" r="A177">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="B177">
         <v>149</v>
       </c>
-      <c t="s" r="C177">
+      <c t="n" r="C177">
+        <v>102</v>
+      </c>
+      <c t="s" r="D177">
         <v>17</v>
       </c>
-      <c t="n" r="D177">
+      <c t="n" r="E177">
         <v>20417</v>
       </c>
-      <c t="s" r="E177">
-        <v>180</v>
-      </c>
       <c t="s" r="F177">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="178">
+        <v>181</v>
+      </c>
+      <c t="s" r="G177">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="178">
       <c t="s" r="A178">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="B178">
         <v>58</v>
       </c>
-      <c t="s" r="C178">
+      <c t="n" r="C178">
+        <v>102</v>
+      </c>
+      <c t="s" r="D178">
         <v>16</v>
       </c>
-      <c t="n" r="D178">
+      <c t="n" r="E178">
         <v>7692</v>
       </c>
-      <c t="s" r="E178">
-        <v>180</v>
-      </c>
       <c t="s" r="F178">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="179">
+        <v>181</v>
+      </c>
+      <c t="s" r="G178">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="179">
       <c t="s" r="A179">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="B179">
         <v>133</v>
       </c>
-      <c t="s" r="C179">
+      <c t="n" r="C179">
+        <v>102</v>
+      </c>
+      <c t="s" r="D179">
         <v>20</v>
       </c>
-      <c t="n" r="D179">
+      <c t="n" r="E179">
         <v>10000</v>
       </c>
-      <c t="s" r="E179">
-        <v>180</v>
-      </c>
       <c t="s" r="F179">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="180">
+        <v>181</v>
+      </c>
+      <c t="s" r="G179">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="180">
       <c t="s" r="A180">
         <v>53</v>
       </c>
       <c t="s" r="B180">
-        <v>280</v>
-      </c>
-      <c t="s" r="C180">
+        <v>281</v>
+      </c>
+      <c t="n" r="C180">
+        <v>102</v>
+      </c>
+      <c t="s" r="D180">
         <v>9</v>
       </c>
-      <c t="n" r="D180">
+      <c t="n" r="E180">
         <v>407910</v>
       </c>
-      <c t="s" r="E180">
-        <v>180</v>
-      </c>
       <c t="s" r="F180">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="181">
+        <v>181</v>
+      </c>
+      <c t="s" r="G180">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="181">
       <c t="s" r="A181">
         <v>53</v>
       </c>
       <c t="s" r="B181">
         <v>149</v>
       </c>
-      <c t="s" r="C181">
+      <c t="n" r="C181">
+        <v>102</v>
+      </c>
+      <c t="s" r="D181">
         <v>16</v>
       </c>
-      <c t="n" r="D181">
+      <c t="n" r="E181">
         <v>40834</v>
       </c>
-      <c t="s" r="E181">
-        <v>180</v>
-      </c>
       <c t="s" r="F181">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="182">
+        <v>181</v>
+      </c>
+      <c t="s" r="G181">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="182">
       <c t="s" r="A182">
         <v>7</v>
       </c>
       <c t="s" r="B182">
         <v>110</v>
       </c>
-      <c t="s" r="C182">
+      <c t="n" r="C182">
+        <v>102</v>
+      </c>
+      <c t="s" r="D182">
         <v>17</v>
       </c>
-      <c t="n" r="D182">
+      <c t="n" r="E182">
         <v>15000</v>
       </c>
-      <c t="s" r="E182">
-        <v>180</v>
-      </c>
       <c t="s" r="F182">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="183">
+        <v>181</v>
+      </c>
+      <c t="s" r="G182">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="183">
       <c t="s" r="A183">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="B183">
-        <v>280</v>
-      </c>
-      <c t="s" r="C183">
+        <v>281</v>
+      </c>
+      <c t="n" r="C183">
+        <v>102</v>
+      </c>
+      <c t="s" r="D183">
         <v>21</v>
       </c>
-      <c t="n" r="D183">
+      <c t="n" r="E183">
         <v>135970</v>
       </c>
-      <c t="s" r="E183">
-        <v>180</v>
-      </c>
       <c t="s" r="F183">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="184">
+        <v>181</v>
+      </c>
+      <c t="s" r="G183">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="184">
       <c t="s" r="A184">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="B184">
         <v>149</v>
       </c>
-      <c t="s" r="C184">
+      <c t="n" r="C184">
+        <v>102</v>
+      </c>
+      <c t="s" r="D184">
         <v>16</v>
       </c>
-      <c t="n" r="D184">
+      <c t="n" r="E184">
         <v>20417</v>
       </c>
-      <c t="s" r="E184">
-        <v>180</v>
-      </c>
       <c t="s" r="F184">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="185">
+        <v>181</v>
+      </c>
+      <c t="s" r="G184">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="185">
       <c t="s" r="A185">
         <v>59</v>
       </c>
       <c t="s" r="B185">
         <v>149</v>
       </c>
-      <c t="s" r="C185">
+      <c t="n" r="C185">
+        <v>102</v>
+      </c>
+      <c t="s" r="D185">
         <v>12</v>
       </c>
-      <c t="n" r="D185">
+      <c t="n" r="E185">
         <v>20417</v>
       </c>
-      <c t="s" r="E185">
-        <v>180</v>
-      </c>
       <c t="s" r="F185">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="186">
+        <v>181</v>
+      </c>
+      <c t="s" r="G185">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="186">
       <c t="s" r="A186">
         <v>167</v>
       </c>
       <c t="s" r="B186">
         <v>149</v>
       </c>
-      <c t="s" r="C186">
+      <c t="n" r="C186">
+        <v>102</v>
+      </c>
+      <c t="s" r="D186">
         <v>17</v>
       </c>
-      <c t="n" r="D186">
+      <c t="n" r="E186">
         <v>20417</v>
       </c>
-      <c t="s" r="E186">
-        <v>180</v>
-      </c>
       <c t="s" r="F186">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="187">
+        <v>181</v>
+      </c>
+      <c t="s" r="G186">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="187">
       <c t="s" r="A187">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="B187">
         <v>149</v>
       </c>
-      <c t="s" r="C187">
+      <c t="n" r="C187">
+        <v>102</v>
+      </c>
+      <c t="s" r="D187">
         <v>17</v>
       </c>
-      <c t="n" r="D187">
+      <c t="n" r="E187">
         <v>20417</v>
       </c>
-      <c t="s" r="E187">
-        <v>180</v>
-      </c>
       <c t="s" r="F187">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="188">
+        <v>181</v>
+      </c>
+      <c t="s" r="G187">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="188">
       <c t="s" r="A188">
         <v>170</v>
       </c>
       <c t="s" r="B188">
         <v>149</v>
       </c>
-      <c t="s" r="C188">
+      <c t="n" r="C188">
+        <v>102</v>
+      </c>
+      <c t="s" r="D188">
         <v>17</v>
       </c>
-      <c t="n" r="D188">
+      <c t="n" r="E188">
         <v>20417</v>
       </c>
-      <c t="s" r="E188">
-        <v>180</v>
-      </c>
       <c t="s" r="F188">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="189">
+        <v>181</v>
+      </c>
+      <c t="s" r="G188">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="189">
       <c t="s" r="A189">
         <v>79</v>
       </c>
       <c t="s" r="B189">
         <v>149</v>
       </c>
-      <c t="s" r="C189">
+      <c t="n" r="C189">
+        <v>102</v>
+      </c>
+      <c t="s" r="D189">
         <v>17</v>
       </c>
-      <c t="n" r="D189">
+      <c t="n" r="E189">
         <v>20417</v>
       </c>
-      <c t="s" r="E189">
-        <v>180</v>
-      </c>
       <c t="s" r="F189">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="190">
+        <v>181</v>
+      </c>
+      <c t="s" r="G189">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="190">
       <c t="s" r="A190">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="B190">
         <v>149</v>
       </c>
-      <c t="s" r="C190">
+      <c t="n" r="C190">
+        <v>102</v>
+      </c>
+      <c t="s" r="D190">
         <v>17</v>
       </c>
-      <c t="n" r="D190">
+      <c t="n" r="E190">
         <v>61251</v>
       </c>
-      <c t="s" r="E190">
-        <v>180</v>
-      </c>
       <c t="s" r="F190">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="191">
+        <v>181</v>
+      </c>
+      <c t="s" r="G190">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="191">
       <c t="s" r="A191">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="B191">
         <v>140</v>
       </c>
-      <c t="s" r="C191">
+      <c t="n" r="C191">
+        <v>102</v>
+      </c>
+      <c t="s" r="D191">
         <v>11</v>
       </c>
-      <c t="n" r="D191">
+      <c t="n" r="E191">
         <v>4000</v>
       </c>
-      <c t="s" r="E191">
-        <v>180</v>
-      </c>
       <c t="s" r="F191">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="192">
+        <v>181</v>
+      </c>
+      <c t="s" r="G191">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="192">
       <c t="s" r="A192">
         <v>57</v>
       </c>
       <c t="s" r="B192">
         <v>140</v>
       </c>
-      <c t="s" r="C192">
+      <c t="n" r="C192">
+        <v>102</v>
+      </c>
+      <c t="s" r="D192">
         <v>11</v>
       </c>
-      <c t="n" r="D192">
+      <c t="n" r="E192">
         <v>4000</v>
       </c>
-      <c t="s" r="E192">
-        <v>180</v>
-      </c>
       <c t="s" r="F192">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="193">
+        <v>181</v>
+      </c>
+      <c t="s" r="G192">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="193">
       <c t="s" r="A193">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="B193">
-        <v>276</v>
-      </c>
-      <c t="s" r="C193">
+        <v>277</v>
+      </c>
+      <c t="n" r="C193">
+        <v>102</v>
+      </c>
+      <c t="s" r="D193">
         <v>15</v>
       </c>
-      <c t="n" r="D193">
+      <c t="n" r="E193">
         <v>217300</v>
       </c>
-      <c t="s" r="E193">
+      <c t="s" r="F193">
         <v>176</v>
       </c>
-      <c t="s" r="F193">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="194">
+      <c t="s" r="G193">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="194">
       <c t="s" r="A194">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="B194">
         <v>143</v>
       </c>
-      <c t="s" r="C194">
+      <c t="n" r="C194">
+        <v>102</v>
+      </c>
+      <c t="s" r="D194">
         <v>3</v>
       </c>
-      <c t="n" r="D194">
+      <c t="n" r="E194">
         <v>181000</v>
       </c>
-      <c t="s" r="E194">
+      <c t="s" r="F194">
         <v>176</v>
       </c>
-      <c t="s" r="F194">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="195">
+      <c t="s" r="G194">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="195">
       <c t="s" r="A195">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="B195">
         <v>99</v>
       </c>
-      <c t="s" r="C195">
+      <c t="n" r="C195">
+        <v>102</v>
+      </c>
+      <c t="s" r="D195">
         <v>3</v>
       </c>
-      <c t="n" r="D195">
+      <c t="n" r="E195">
         <v>156460</v>
       </c>
-      <c t="s" r="E195">
+      <c t="s" r="F195">
         <v>176</v>
       </c>
-      <c t="s" r="F195">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="196">
+      <c t="s" r="G195">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="196">
       <c t="s" r="A196">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="B196">
-        <v>215</v>
-      </c>
-      <c t="s" r="C196">
+        <v>216</v>
+      </c>
+      <c t="n" r="C196">
+        <v>102</v>
+      </c>
+      <c t="s" r="D196">
         <v>3</v>
       </c>
-      <c t="n" r="D196">
+      <c t="n" r="E196">
         <v>50000</v>
       </c>
-      <c t="s" r="E196">
+      <c t="s" r="F196">
         <v>176</v>
       </c>
-      <c t="s" r="F196">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="197">
+      <c t="s" r="G196">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="197">
       <c t="s" r="A197">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="B197">
-        <v>318</v>
-      </c>
-      <c t="s" r="C197">
+        <v>319</v>
+      </c>
+      <c t="n" r="C197">
+        <v>102</v>
+      </c>
+      <c t="s" r="D197">
         <v>20</v>
       </c>
-      <c t="n" r="D197">
+      <c t="n" r="E197">
         <v>5438</v>
       </c>
-      <c t="s" r="E197">
+      <c t="s" r="F197">
         <v>176</v>
       </c>
-      <c t="s" r="F197">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="198">
+      <c t="s" r="G197">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="198">
       <c t="s" r="A198">
         <v>177</v>
       </c>
       <c t="s" r="B198">
-        <v>275</v>
-      </c>
-      <c t="s" r="C198">
+        <v>276</v>
+      </c>
+      <c t="n" r="C198">
+        <v>102</v>
+      </c>
+      <c t="s" r="D198">
         <v>15</v>
       </c>
-      <c t="n" r="D198">
+      <c t="n" r="E198">
         <v>68500</v>
       </c>
-      <c t="s" r="E198">
+      <c t="s" r="F198">
         <v>176</v>
       </c>
-      <c t="s" r="F198">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="199">
+      <c t="s" r="G198">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="199">
       <c t="s" r="A199">
         <v>177</v>
       </c>
       <c t="s" r="B199">
         <v>142</v>
       </c>
-      <c t="s" r="C199">
+      <c t="n" r="C199">
+        <v>102</v>
+      </c>
+      <c t="s" r="D199">
         <v>3</v>
       </c>
-      <c t="n" r="D199">
+      <c t="n" r="E199">
         <v>36600</v>
       </c>
-      <c t="s" r="E199">
+      <c t="s" r="F199">
         <v>176</v>
       </c>
-      <c t="s" r="F199">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="200">
+      <c t="s" r="G199">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="200">
       <c t="s" r="A200">
         <v>177</v>
       </c>
       <c t="s" r="B200">
-        <v>313</v>
-      </c>
-      <c t="s" r="C200">
+        <v>314</v>
+      </c>
+      <c t="n" r="C200">
+        <v>102</v>
+      </c>
+      <c t="s" r="D200">
         <v>3</v>
       </c>
-      <c t="n" r="D200">
+      <c t="n" r="E200">
         <v>90000</v>
       </c>
-      <c t="s" r="E200">
+      <c t="s" r="F200">
         <v>176</v>
       </c>
-      <c t="s" r="F200">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="201">
+      <c t="s" r="G200">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="201">
       <c t="s" r="A201">
         <v>177</v>
       </c>
       <c t="s" r="B201">
-        <v>214</v>
-      </c>
-      <c t="s" r="C201">
+        <v>215</v>
+      </c>
+      <c t="n" r="C201">
+        <v>102</v>
+      </c>
+      <c t="s" r="D201">
         <v>2</v>
       </c>
-      <c t="n" r="D201">
+      <c t="n" r="E201">
         <v>6391</v>
       </c>
-      <c t="s" r="E201">
+      <c t="s" r="F201">
         <v>176</v>
       </c>
-      <c t="s" r="F201">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="202">
+      <c t="s" r="G201">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="202">
       <c t="s" r="A202">
         <v>73</v>
       </c>
       <c t="s" r="B202">
         <v>97</v>
       </c>
-      <c t="s" r="C202">
+      <c t="n" r="C202">
+        <v>102</v>
+      </c>
+      <c t="s" r="D202">
         <v>25</v>
       </c>
-      <c t="n" r="D202">
+      <c t="n" r="E202">
         <v>30000</v>
       </c>
-      <c t="s" r="E202">
+      <c t="s" r="F202">
         <v>176</v>
       </c>
-      <c t="s" r="F202">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="203">
+      <c t="s" r="G202">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="203">
       <c t="s" r="A203">
         <v>73</v>
       </c>
       <c t="s" r="B203">
-        <v>273</v>
-      </c>
-      <c t="s" r="C203">
+        <v>274</v>
+      </c>
+      <c t="n" r="C203">
+        <v>102</v>
+      </c>
+      <c t="s" r="D203">
         <v>3</v>
       </c>
-      <c t="n" r="D203">
+      <c t="n" r="E203">
         <v>80000</v>
       </c>
-      <c t="s" r="E203">
+      <c t="s" r="F203">
         <v>176</v>
       </c>
-      <c t="s" r="F203">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="204">
+      <c t="s" r="G203">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="204">
       <c t="s" r="A204">
         <v>73</v>
       </c>
       <c t="s" r="B204">
         <v>162</v>
       </c>
-      <c t="s" r="C204">
+      <c t="n" r="C204">
+        <v>102</v>
+      </c>
+      <c t="s" r="D204">
         <v>20</v>
       </c>
-      <c t="n" r="D204">
+      <c t="n" r="E204">
         <v>18095</v>
       </c>
-      <c t="s" r="E204">
+      <c t="s" r="F204">
         <v>176</v>
       </c>
-      <c t="s" r="F204">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="205">
+      <c t="s" r="G204">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="205">
       <c t="s" r="A205">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="B205">
         <v>169</v>
       </c>
-      <c t="s" r="C205">
+      <c t="n" r="C205">
+        <v>102</v>
+      </c>
+      <c t="s" r="D205">
         <v>16</v>
       </c>
-      <c t="n" r="D205">
+      <c t="n" r="E205">
         <v>10000</v>
       </c>
-      <c t="s" r="E205">
-        <v>246</v>
-      </c>
       <c t="s" r="F205">
+        <v>247</v>
+      </c>
+      <c t="s" r="G205">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="206">
+      <c t="s" r="A206">
         <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="206">
-      <c t="s" r="A206">
-        <v>249</v>
       </c>
       <c t="s" r="B206">
         <v>159</v>
       </c>
-      <c t="s" r="C206">
+      <c t="n" r="C206">
+        <v>102</v>
+      </c>
+      <c t="s" r="D206">
         <v>3</v>
       </c>
-      <c t="n" r="D206">
+      <c t="n" r="E206">
         <v>174375</v>
       </c>
-      <c t="s" r="E206">
-        <v>246</v>
-      </c>
       <c t="s" r="F206">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="207">
+        <v>247</v>
+      </c>
+      <c t="s" r="G206">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="207">
       <c t="s" r="A207">
         <v>6</v>
       </c>
       <c t="s" r="B207">
         <v>151</v>
       </c>
-      <c t="s" r="C207">
+      <c t="n" r="C207">
+        <v>102</v>
+      </c>
+      <c t="s" r="D207">
         <v>15</v>
       </c>
-      <c t="n" r="D207">
+      <c t="n" r="E207">
         <v>50000</v>
       </c>
-      <c t="s" r="E207">
-        <v>193</v>
-      </c>
       <c t="s" r="F207">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="208">
+        <v>194</v>
+      </c>
+      <c t="s" r="G207">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="208">
       <c t="s" r="A208">
         <v>6</v>
       </c>
       <c t="s" r="B208">
-        <v>225</v>
-      </c>
-      <c t="s" r="C208">
+        <v>226</v>
+      </c>
+      <c t="n" r="C208">
+        <v>102</v>
+      </c>
+      <c t="s" r="D208">
         <v>10</v>
       </c>
-      <c t="n" r="D208">
+      <c t="n" r="E208">
         <v>70000</v>
       </c>
-      <c t="s" r="E208">
-        <v>193</v>
-      </c>
       <c t="s" r="F208">
-        <v>250</v>
-      </c>
-    </row>
-    <row spans="1:7" r="209">
+        <v>194</v>
+      </c>
+      <c t="s" r="G208">
+        <v>251</v>
+      </c>
+    </row>
+    <row spans="1:8" r="209">
       <c t="s" r="A209">
         <v>6</v>
       </c>
       <c t="s" r="B209">
-        <v>226</v>
-      </c>
-      <c t="s" r="C209">
+        <v>227</v>
+      </c>
+      <c t="n" r="C209">
+        <v>102</v>
+      </c>
+      <c t="s" r="D209">
         <v>10</v>
       </c>
-      <c t="n" r="D209">
+      <c t="n" r="E209">
         <v>250000</v>
       </c>
-      <c t="s" r="E209">
-        <v>193</v>
-      </c>
       <c t="s" r="F209">
-        <v>250</v>
+        <v>194</v>
+      </c>
+      <c t="s" r="G209">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/1_政策宣傳執情形/parsed/農委會/農委會主管102年第4季廣宣彙整表.xlsx
+++ b/1_政策宣傳執情形/parsed/農委會/農委會主管102年第4季廣宣彙整表.xlsx
@@ -1386,7 +1386,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
   <dimension ref="A1:H209"/>
   <sheetViews>
@@ -1406,7 +1406,7 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c t="s" r="A1" s="2">
         <v>61</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
+    <row r="2" spans="1:8">
       <c t="s" r="A2">
         <v>190</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
+    <row r="3" spans="1:8">
       <c t="s" r="A3">
         <v>190</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
+    <row r="4" spans="1:8">
       <c t="s" r="A4">
         <v>190</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
+    <row r="5" spans="1:8">
       <c t="s" r="A5">
         <v>239</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
+    <row r="6" spans="1:8">
       <c t="s" r="A6">
         <v>239</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="7">
+    <row r="7" spans="1:8">
       <c t="s" r="A7">
         <v>239</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="8">
+    <row r="8" spans="1:8">
       <c t="s" r="A8">
         <v>189</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="9">
+    <row r="9" spans="1:8">
       <c t="s" r="A9">
         <v>189</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="10">
+    <row r="10" spans="1:8">
       <c t="s" r="A10">
         <v>189</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="11">
+    <row r="11" spans="1:8">
       <c t="s" r="A11">
         <v>189</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="12">
+    <row r="12" spans="1:8">
       <c t="s" r="A12">
         <v>60</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="13">
+    <row r="13" spans="1:8">
       <c t="s" r="A13">
         <v>125</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="14">
+    <row r="14" spans="1:8">
       <c t="s" r="A14">
         <v>125</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="15">
+    <row r="15" spans="1:8">
       <c t="s" r="A15">
         <v>125</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="16">
+    <row r="16" spans="1:8">
       <c t="s" r="A16">
         <v>124</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="17">
+    <row r="17" spans="1:8">
       <c t="s" r="A17">
         <v>124</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="18">
+    <row r="18" spans="1:8">
       <c t="s" r="A18">
         <v>124</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="19">
+    <row r="19" spans="1:8">
       <c t="s" r="A19">
         <v>124</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="20">
+    <row r="20" spans="1:8">
       <c t="s" r="A20">
         <v>168</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="21">
+    <row r="21" spans="1:8">
       <c t="s" r="A21">
         <v>168</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="22">
+    <row r="22" spans="1:8">
       <c t="s" r="A22">
         <v>168</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="23">
+    <row r="23" spans="1:8">
       <c t="s" r="A23">
         <v>168</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="24">
+    <row r="24" spans="1:8">
       <c t="s" r="A24">
         <v>182</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="25">
+    <row r="25" spans="1:8">
       <c t="s" r="A25">
         <v>182</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="26">
+    <row r="26" spans="1:8">
       <c t="s" r="A26">
         <v>182</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="27">
+    <row r="27" spans="1:8">
       <c t="s" r="A27">
         <v>183</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="28">
+    <row r="28" spans="1:8">
       <c t="s" r="A28">
         <v>183</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="29">
+    <row r="29" spans="1:8">
       <c t="s" r="A29">
         <v>255</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="30">
+    <row r="30" spans="1:8">
       <c t="s" r="A30">
         <v>269</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="31">
+    <row r="31" spans="1:8">
       <c t="s" r="A31">
         <v>63</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="32">
+    <row r="32" spans="1:8">
       <c t="s" r="A32">
         <v>75</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="33">
+    <row r="33" spans="1:8">
       <c t="s" r="A33">
         <v>36</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="34">
+    <row r="34" spans="1:8">
       <c t="s" r="A34">
         <v>36</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="35">
+    <row r="35" spans="1:8">
       <c t="s" r="A35">
         <v>191</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="36">
+    <row r="36" spans="1:8">
       <c t="s" r="A36">
         <v>260</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="37">
+    <row r="37" spans="1:8">
       <c t="s" r="A37">
         <v>234</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="38">
+    <row r="38" spans="1:8">
       <c t="s" r="A38">
         <v>234</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="39">
+    <row r="39" spans="1:8">
       <c t="s" r="A39">
         <v>234</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="40">
+    <row r="40" spans="1:8">
       <c t="s" r="A40">
         <v>234</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="41">
+    <row r="41" spans="1:8">
       <c t="s" r="A41">
         <v>234</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="42">
+    <row r="42" spans="1:8">
       <c t="s" r="A42">
         <v>234</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="43">
+    <row r="43" spans="1:8">
       <c t="s" r="A43">
         <v>234</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="44">
+    <row r="44" spans="1:8">
       <c t="s" r="A44">
         <v>234</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="45">
+    <row r="45" spans="1:8">
       <c t="s" r="A45">
         <v>325</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="46">
+    <row r="46" spans="1:8">
       <c t="s" r="A46">
         <v>325</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="47">
+    <row r="47" spans="1:8">
       <c t="s" r="A47">
         <v>324</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="48">
+    <row r="48" spans="1:8">
       <c t="s" r="A48">
         <v>324</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="49">
+    <row r="49" spans="1:8">
       <c t="s" r="A49">
         <v>324</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="50">
+    <row r="50" spans="1:8">
       <c t="s" r="A50">
         <v>324</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="51">
+    <row r="51" spans="1:8">
       <c t="s" r="A51">
         <v>324</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="52">
+    <row r="52" spans="1:8">
       <c t="s" r="A52">
         <v>192</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="53">
+    <row r="53" spans="1:8">
       <c t="s" r="A53">
         <v>259</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="54">
+    <row r="54" spans="1:8">
       <c t="s" r="A54">
         <v>259</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="55">
+    <row r="55" spans="1:8">
       <c t="s" r="A55">
         <v>32</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="56">
+    <row r="56" spans="1:8">
       <c t="s" r="A56">
         <v>32</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="57">
+    <row r="57" spans="1:8">
       <c t="s" r="A57">
         <v>32</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="58">
+    <row r="58" spans="1:8">
       <c t="s" r="A58">
         <v>32</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="59">
+    <row r="59" spans="1:8">
       <c t="s" r="A59">
         <v>32</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="60">
+    <row r="60" spans="1:8">
       <c t="s" r="A60">
         <v>32</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="61">
+    <row r="61" spans="1:8">
       <c t="s" r="A61">
         <v>126</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="62">
+    <row r="62" spans="1:8">
       <c t="s" r="A62">
         <v>187</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="63">
+    <row r="63" spans="1:8">
       <c t="s" r="A63">
         <v>37</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="64">
+    <row r="64" spans="1:8">
       <c t="s" r="A64">
         <v>37</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="65">
+    <row r="65" spans="1:8">
       <c t="s" r="A65">
         <v>37</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="66">
+    <row r="66" spans="1:8">
       <c t="s" r="A66">
         <v>37</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="67">
+    <row r="67" spans="1:8">
       <c t="s" r="A67">
         <v>258</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="68">
+    <row r="68" spans="1:8">
       <c t="s" r="A68">
         <v>231</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="69">
+    <row r="69" spans="1:8">
       <c t="s" r="A69">
         <v>232</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="70">
+    <row r="70" spans="1:8">
       <c t="s" r="A70">
         <v>174</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="71">
+    <row r="71" spans="1:8">
       <c t="s" r="A71">
         <v>200</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="72">
+    <row r="72" spans="1:8">
       <c t="s" r="A72">
         <v>199</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="73">
+    <row r="73" spans="1:8">
       <c t="s" r="A73">
         <v>186</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="74">
+    <row r="74" spans="1:8">
       <c t="s" r="A74">
         <v>66</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="75">
+    <row r="75" spans="1:8">
       <c t="s" r="A75">
         <v>35</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="76">
+    <row r="76" spans="1:8">
       <c t="s" r="A76">
         <v>35</v>
       </c>
@@ -3144,12 +3144,12 @@
       <c t="n" r="C76">
         <v>102</v>
       </c>
-      <c t="n" r="D76">
+      <c t="s" r="D76">
+        <v>43</v>
+      </c>
+      <c t="n" r="E76">
         <v>0</v>
       </c>
-      <c t="n" r="E76">
-        <v>900000</v>
-      </c>
       <c t="s" r="F76">
         <v>251</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="77">
+    <row r="77" spans="1:8">
       <c t="s" r="A77">
         <v>35</v>
       </c>
@@ -3167,12 +3167,12 @@
       <c t="n" r="C77">
         <v>102</v>
       </c>
-      <c t="n" r="D77">
+      <c t="s" r="D77">
+        <v>43</v>
+      </c>
+      <c t="n" r="E77">
         <v>0</v>
       </c>
-      <c t="n" r="E77">
-        <v>900000</v>
-      </c>
       <c t="s" r="F77">
         <v>251</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="78">
+    <row r="78" spans="1:8">
       <c t="s" r="A78">
         <v>31</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="79">
+    <row r="79" spans="1:8">
       <c t="s" r="A79">
         <v>31</v>
       </c>
@@ -3213,12 +3213,12 @@
       <c t="n" r="C79">
         <v>102</v>
       </c>
-      <c t="n" r="D79">
+      <c t="s" r="D79">
+        <v>3</v>
+      </c>
+      <c t="n" r="E79">
         <v>0</v>
       </c>
-      <c t="n" r="E79">
-        <v>800000</v>
-      </c>
       <c t="s" r="F79">
         <v>251</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="80">
+    <row r="80" spans="1:8">
       <c t="s" r="A80">
         <v>70</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="81">
+    <row r="81" spans="1:8">
       <c t="s" r="A81">
         <v>70</v>
       </c>
@@ -3259,12 +3259,12 @@
       <c t="n" r="C81">
         <v>102</v>
       </c>
-      <c t="n" r="D81">
+      <c t="s" r="D81">
+        <v>41</v>
+      </c>
+      <c t="n" r="E81">
         <v>0</v>
       </c>
-      <c t="n" r="E81">
-        <v>130000</v>
-      </c>
       <c t="s" r="F81">
         <v>251</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="82">
+    <row r="82" spans="1:8">
       <c t="s" r="A82">
         <v>30</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="83">
+    <row r="83" spans="1:8">
       <c t="s" r="A83">
         <v>30</v>
       </c>
@@ -3305,12 +3305,12 @@
       <c t="n" r="C83">
         <v>102</v>
       </c>
-      <c t="n" r="D83">
+      <c t="s" r="D83">
+        <v>45</v>
+      </c>
+      <c t="n" r="E83">
         <v>0</v>
       </c>
-      <c t="n" r="E83">
-        <v>560000</v>
-      </c>
       <c t="s" r="F83">
         <v>251</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="84">
+    <row r="84" spans="1:8">
       <c t="s" r="A84">
         <v>30</v>
       </c>
@@ -3328,12 +3328,12 @@
       <c t="n" r="C84">
         <v>102</v>
       </c>
-      <c t="n" r="D84">
+      <c t="s" r="D84">
+        <v>45</v>
+      </c>
+      <c t="n" r="E84">
         <v>0</v>
       </c>
-      <c t="n" r="E84">
-        <v>560000</v>
-      </c>
       <c t="s" r="F84">
         <v>251</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="85">
+    <row r="85" spans="1:8">
       <c t="s" r="A85">
         <v>34</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="86">
+    <row r="86" spans="1:8">
       <c t="s" r="A86">
         <v>34</v>
       </c>
@@ -3374,12 +3374,12 @@
       <c t="n" r="C86">
         <v>102</v>
       </c>
-      <c t="n" r="D86">
+      <c t="s" r="D86">
+        <v>48</v>
+      </c>
+      <c t="n" r="E86">
         <v>0</v>
       </c>
-      <c t="n" r="E86">
-        <v>180000</v>
-      </c>
       <c t="s" r="F86">
         <v>251</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="87">
+    <row r="87" spans="1:8">
       <c t="s" r="A87">
         <v>71</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="88">
+    <row r="88" spans="1:8">
       <c t="s" r="A88">
         <v>50</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="89">
+    <row r="89" spans="1:8">
       <c t="s" r="A89">
         <v>50</v>
       </c>
@@ -3443,12 +3443,12 @@
       <c t="n" r="C89">
         <v>102</v>
       </c>
-      <c t="n" r="D89">
+      <c t="s" r="D89">
+        <v>10</v>
+      </c>
+      <c t="n" r="E89">
         <v>0</v>
       </c>
-      <c t="n" r="E89">
-        <v>543000</v>
-      </c>
       <c t="s" r="F89">
         <v>251</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="90">
+    <row r="90" spans="1:8">
       <c t="s" r="A90">
         <v>52</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="91">
+    <row r="91" spans="1:8">
       <c t="s" r="A91">
         <v>52</v>
       </c>
@@ -3489,12 +3489,12 @@
       <c t="n" r="C91">
         <v>102</v>
       </c>
-      <c t="n" r="D91">
+      <c t="s" r="D91">
+        <v>18</v>
+      </c>
+      <c t="n" r="E91">
         <v>0</v>
       </c>
-      <c t="n" r="E91">
-        <v>700000</v>
-      </c>
       <c t="s" r="F91">
         <v>251</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="92">
+    <row r="92" spans="1:8">
       <c t="s" r="A92">
         <v>52</v>
       </c>
@@ -3512,12 +3512,12 @@
       <c t="n" r="C92">
         <v>102</v>
       </c>
-      <c t="n" r="D92">
+      <c t="s" r="D92">
+        <v>18</v>
+      </c>
+      <c t="n" r="E92">
         <v>0</v>
       </c>
-      <c t="n" r="E92">
-        <v>700000</v>
-      </c>
       <c t="s" r="F92">
         <v>251</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="93">
+    <row r="93" spans="1:8">
       <c t="s" r="A93">
         <v>52</v>
       </c>
@@ -3535,12 +3535,12 @@
       <c t="n" r="C93">
         <v>102</v>
       </c>
-      <c t="n" r="D93">
+      <c t="s" r="D93">
+        <v>18</v>
+      </c>
+      <c t="n" r="E93">
         <v>0</v>
       </c>
-      <c t="n" r="E93">
-        <v>700000</v>
-      </c>
       <c t="s" r="F93">
         <v>251</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="94">
+    <row r="94" spans="1:8">
       <c t="s" r="A94">
         <v>74</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="95">
+    <row r="95" spans="1:8">
       <c t="s" r="A95">
         <v>74</v>
       </c>
@@ -3581,12 +3581,12 @@
       <c t="n" r="C95">
         <v>102</v>
       </c>
-      <c t="n" r="D95">
+      <c t="s" r="D95">
+        <v>16</v>
+      </c>
+      <c t="n" r="E95">
         <v>0</v>
       </c>
-      <c t="n" r="E95">
-        <v>2760000</v>
-      </c>
       <c t="s" r="F95">
         <v>251</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="96">
+    <row r="96" spans="1:8">
       <c t="s" r="A96">
         <v>74</v>
       </c>
@@ -3604,12 +3604,12 @@
       <c t="n" r="C96">
         <v>102</v>
       </c>
-      <c t="n" r="D96">
+      <c t="s" r="D96">
+        <v>16</v>
+      </c>
+      <c t="n" r="E96">
         <v>0</v>
       </c>
-      <c t="n" r="E96">
-        <v>2760000</v>
-      </c>
       <c t="s" r="F96">
         <v>251</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="97">
+    <row r="97" spans="1:8">
       <c t="s" r="A97">
         <v>74</v>
       </c>
@@ -3627,12 +3627,12 @@
       <c t="n" r="C97">
         <v>102</v>
       </c>
-      <c t="n" r="D97">
+      <c t="s" r="D97">
+        <v>16</v>
+      </c>
+      <c t="n" r="E97">
         <v>0</v>
       </c>
-      <c t="n" r="E97">
-        <v>2760000</v>
-      </c>
       <c t="s" r="F97">
         <v>251</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="98">
+    <row r="98" spans="1:8">
       <c t="s" r="A98">
         <v>76</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="99">
+    <row r="99" spans="1:8">
       <c t="s" r="A99">
         <v>76</v>
       </c>
@@ -3673,12 +3673,12 @@
       <c t="n" r="C99">
         <v>102</v>
       </c>
-      <c t="n" r="D99">
+      <c t="s" r="D99">
+        <v>20</v>
+      </c>
+      <c t="n" r="E99">
         <v>0</v>
       </c>
-      <c t="n" r="E99">
-        <v>471500</v>
-      </c>
       <c t="s" r="F99">
         <v>251</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="100">
+    <row r="100" spans="1:8">
       <c t="s" r="A100">
         <v>76</v>
       </c>
@@ -3696,12 +3696,12 @@
       <c t="n" r="C100">
         <v>102</v>
       </c>
-      <c t="n" r="D100">
+      <c t="s" r="D100">
+        <v>20</v>
+      </c>
+      <c t="n" r="E100">
         <v>0</v>
       </c>
-      <c t="n" r="E100">
-        <v>471500</v>
-      </c>
       <c t="s" r="F100">
         <v>251</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="101">
+    <row r="101" spans="1:8">
       <c t="s" r="A101">
         <v>77</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="102">
+    <row r="102" spans="1:8">
       <c t="s" r="A102">
         <v>77</v>
       </c>
@@ -3742,12 +3742,12 @@
       <c t="n" r="C102">
         <v>102</v>
       </c>
-      <c t="n" r="D102">
+      <c t="s" r="D102">
+        <v>20</v>
+      </c>
+      <c t="n" r="E102">
         <v>0</v>
       </c>
-      <c t="n" r="E102">
-        <v>619000</v>
-      </c>
       <c t="s" r="F102">
         <v>251</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="103">
+    <row r="103" spans="1:8">
       <c t="s" r="A103">
         <v>178</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="104">
+    <row r="104" spans="1:8">
       <c t="s" r="A104">
         <v>29</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="105">
+    <row r="105" spans="1:8">
       <c t="s" r="A105">
         <v>50</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="106">
+    <row r="106" spans="1:8">
       <c t="s" r="A106">
         <v>49</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="107">
+    <row r="107" spans="1:8">
       <c t="s" r="A107">
         <v>52</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="108">
+    <row r="108" spans="1:8">
       <c t="s" r="A108">
         <v>52</v>
       </c>
@@ -3880,11 +3880,11 @@
       <c t="n" r="C108">
         <v>102</v>
       </c>
-      <c t="n" r="D108">
+      <c t="s" r="D108">
+        <v>18</v>
+      </c>
+      <c t="n" r="E108">
         <v>0</v>
-      </c>
-      <c t="n" r="E108">
-        <v>700000</v>
       </c>
       <c t="s" r="F108">
         <v>241</v>
@@ -3893,7 +3893,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="109">
+    <row r="109" spans="1:8">
       <c t="s" r="A109">
         <v>52</v>
       </c>
@@ -3903,11 +3903,11 @@
       <c t="n" r="C109">
         <v>102</v>
       </c>
-      <c t="n" r="D109">
+      <c t="s" r="D109">
+        <v>18</v>
+      </c>
+      <c t="n" r="E109">
         <v>0</v>
-      </c>
-      <c t="n" r="E109">
-        <v>700000</v>
       </c>
       <c t="s" r="F109">
         <v>241</v>
@@ -3916,7 +3916,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="110">
+    <row r="110" spans="1:8">
       <c t="s" r="A110">
         <v>52</v>
       </c>
@@ -3926,11 +3926,11 @@
       <c t="n" r="C110">
         <v>102</v>
       </c>
-      <c t="n" r="D110">
+      <c t="s" r="D110">
+        <v>18</v>
+      </c>
+      <c t="n" r="E110">
         <v>0</v>
-      </c>
-      <c t="n" r="E110">
-        <v>700000</v>
       </c>
       <c t="s" r="F110">
         <v>241</v>
@@ -3939,7 +3939,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="111">
+    <row r="111" spans="1:8">
       <c t="s" r="A111">
         <v>266</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="112">
+    <row r="112" spans="1:8">
       <c t="s" r="A112">
         <v>51</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="113">
+    <row r="113" spans="1:8">
       <c t="s" r="A113">
         <v>173</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="114">
+    <row r="114" spans="1:8">
       <c t="s" r="A114">
         <v>267</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="115">
+    <row r="115" spans="1:8">
       <c t="s" r="A115">
         <v>0</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="116">
+    <row r="116" spans="1:8">
       <c t="s" r="A116">
         <v>62</v>
       </c>
@@ -4064,11 +4064,11 @@
       <c t="n" r="C116">
         <v>102</v>
       </c>
-      <c t="n" r="D116">
+      <c t="s" r="D116">
+        <v>3</v>
+      </c>
+      <c t="n" r="E116">
         <v>0</v>
-      </c>
-      <c t="n" r="E116">
-        <v>822312</v>
       </c>
       <c t="s" r="F116">
         <v>188</v>
@@ -4077,7 +4077,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="117">
+    <row r="117" spans="1:8">
       <c t="s" r="A117">
         <v>119</v>
       </c>
@@ -4087,11 +4087,11 @@
       <c t="n" r="C117">
         <v>102</v>
       </c>
-      <c t="n" r="D117">
+      <c t="s" r="D117">
+        <v>3</v>
+      </c>
+      <c t="n" r="E117">
         <v>0</v>
-      </c>
-      <c t="n" r="E117">
-        <v>822312</v>
       </c>
       <c t="s" r="F117">
         <v>188</v>
@@ -4100,7 +4100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="118">
+    <row r="118" spans="1:8">
       <c t="s" r="A118">
         <v>263</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="119">
+    <row r="119" spans="1:8">
       <c t="s" r="A119">
         <v>329</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="120">
+    <row r="120" spans="1:8">
       <c t="s" r="A120">
         <v>122</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="121">
+    <row r="121" spans="1:8">
       <c t="s" r="A121">
         <v>328</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="122">
+    <row r="122" spans="1:8">
       <c t="s" r="A122">
         <v>123</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="123">
+    <row r="123" spans="1:8">
       <c t="s" r="A123">
         <v>235</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="124">
+    <row r="124" spans="1:8">
       <c t="s" r="A124">
         <v>164</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="125">
+    <row r="125" spans="1:8">
       <c t="s" r="A125">
         <v>193</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="126">
+    <row r="126" spans="1:8">
       <c t="s" r="A126">
         <v>33</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="127">
+    <row r="127" spans="1:8">
       <c t="s" r="A127">
         <v>33</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="128">
+    <row r="128" spans="1:8">
       <c t="s" r="A128">
         <v>327</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="129">
+    <row r="129" spans="1:8">
       <c t="s" r="A129">
         <v>33</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="130">
+    <row r="130" spans="1:8">
       <c t="s" r="A130">
         <v>72</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="131">
+    <row r="131" spans="1:8">
       <c t="s" r="A131">
         <v>72</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="132">
+    <row r="132" spans="1:8">
       <c t="s" r="A132">
         <v>262</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="133">
+    <row r="133" spans="1:8">
       <c t="s" r="A133">
         <v>197</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="134">
+    <row r="134" spans="1:8">
       <c t="s" r="A134">
         <v>55</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="135">
+    <row r="135" spans="1:8">
       <c t="s" r="A135">
         <v>72</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="136">
+    <row r="136" spans="1:8">
       <c t="s" r="A136">
         <v>80</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="137">
+    <row r="137" spans="1:8">
       <c t="s" r="A137">
         <v>248</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="138">
+    <row r="138" spans="1:8">
       <c t="s" r="A138">
         <v>196</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="139">
+    <row r="139" spans="1:8">
       <c t="s" r="A139">
         <v>127</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="140">
+    <row r="140" spans="1:8">
       <c t="s" r="A140">
         <v>121</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="141">
+    <row r="141" spans="1:8">
       <c t="s" r="A141">
         <v>201</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="142">
+    <row r="142" spans="1:8">
       <c t="s" r="A142">
         <v>202</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="143">
+    <row r="143" spans="1:8">
       <c t="s" r="A143">
         <v>67</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="144">
+    <row r="144" spans="1:8">
       <c t="s" r="A144">
         <v>56</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="145">
+    <row r="145" spans="1:8">
       <c t="s" r="A145">
         <v>179</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="146">
+    <row r="146" spans="1:8">
       <c t="s" r="A146">
         <v>68</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="147">
+    <row r="147" spans="1:8">
       <c t="s" r="A147">
         <v>233</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="148">
+    <row r="148" spans="1:8">
       <c t="s" r="A148">
         <v>175</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="149">
+    <row r="149" spans="1:8">
       <c t="s" r="A149">
         <v>322</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="150">
+    <row r="150" spans="1:8">
       <c t="s" r="A150">
         <v>236</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="151">
+    <row r="151" spans="1:8">
       <c t="s" r="A151">
         <v>8</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="152">
+    <row r="152" spans="1:8">
       <c t="s" r="A152">
         <v>78</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="153">
+    <row r="153" spans="1:8">
       <c t="s" r="A153">
         <v>78</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="154">
+    <row r="154" spans="1:8">
       <c t="s" r="A154">
         <v>54</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="155">
+    <row r="155" spans="1:8">
       <c t="s" r="A155">
         <v>54</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="156">
+    <row r="156" spans="1:8">
       <c t="s" r="A156">
         <v>185</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="157">
+    <row r="157" spans="1:8">
       <c t="s" r="A157">
         <v>163</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="158">
+    <row r="158" spans="1:8">
       <c t="s" r="A158">
         <v>163</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="159">
+    <row r="159" spans="1:8">
       <c t="s" r="A159">
         <v>38</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="160">
+    <row r="160" spans="1:8">
       <c t="s" r="A160">
         <v>326</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="161">
+    <row r="161" spans="1:8">
       <c t="s" r="A161">
         <v>306</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="162">
+    <row r="162" spans="1:8">
       <c t="s" r="A162">
         <v>198</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="163">
+    <row r="163" spans="1:8">
       <c t="s" r="A163">
         <v>256</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="164">
+    <row r="164" spans="1:8">
       <c t="s" r="A164">
         <v>256</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="165">
+    <row r="165" spans="1:8">
       <c t="s" r="A165">
         <v>64</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="166">
+    <row r="166" spans="1:8">
       <c t="s" r="A166">
         <v>5</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="167">
+    <row r="167" spans="1:8">
       <c t="s" r="A167">
         <v>166</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="168">
+    <row r="168" spans="1:8">
       <c t="s" r="A168">
         <v>203</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="169">
+    <row r="169" spans="1:8">
       <c t="s" r="A169">
         <v>257</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="170">
+    <row r="170" spans="1:8">
       <c t="s" r="A170">
         <v>172</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="171">
+    <row r="171" spans="1:8">
       <c t="s" r="A171">
         <v>118</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="172">
+    <row r="172" spans="1:8">
       <c t="s" r="A172">
         <v>321</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="173">
+    <row r="173" spans="1:8">
       <c t="s" r="A173">
         <v>237</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="174">
+    <row r="174" spans="1:8">
       <c t="s" r="A174">
         <v>330</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="175">
+    <row r="175" spans="1:8">
       <c t="s" r="A175">
         <v>69</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="176">
+    <row r="176" spans="1:8">
       <c t="s" r="A176">
         <v>195</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="177">
+    <row r="177" spans="1:8">
       <c t="s" r="A177">
         <v>195</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="178">
+    <row r="178" spans="1:8">
       <c t="s" r="A178">
         <v>252</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="179">
+    <row r="179" spans="1:8">
       <c t="s" r="A179">
         <v>253</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="180">
+    <row r="180" spans="1:8">
       <c t="s" r="A180">
         <v>53</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="181">
+    <row r="181" spans="1:8">
       <c t="s" r="A181">
         <v>53</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="182">
+    <row r="182" spans="1:8">
       <c t="s" r="A182">
         <v>7</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="183">
+    <row r="183" spans="1:8">
       <c t="s" r="A183">
         <v>254</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="184">
+    <row r="184" spans="1:8">
       <c t="s" r="A184">
         <v>254</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="185">
+    <row r="185" spans="1:8">
       <c t="s" r="A185">
         <v>59</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="186">
+    <row r="186" spans="1:8">
       <c t="s" r="A186">
         <v>167</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="187">
+    <row r="187" spans="1:8">
       <c t="s" r="A187">
         <v>184</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="188">
+    <row r="188" spans="1:8">
       <c t="s" r="A188">
         <v>170</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="189">
+    <row r="189" spans="1:8">
       <c t="s" r="A189">
         <v>79</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="190">
+    <row r="190" spans="1:8">
       <c t="s" r="A190">
         <v>323</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="191">
+    <row r="191" spans="1:8">
       <c t="s" r="A191">
         <v>204</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="192">
+    <row r="192" spans="1:8">
       <c t="s" r="A192">
         <v>57</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="193">
+    <row r="193" spans="1:8">
       <c t="s" r="A193">
         <v>268</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="194">
+    <row r="194" spans="1:8">
       <c t="s" r="A194">
         <v>268</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="195">
+    <row r="195" spans="1:8">
       <c t="s" r="A195">
         <v>268</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="196">
+    <row r="196" spans="1:8">
       <c t="s" r="A196">
         <v>268</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="197">
+    <row r="197" spans="1:8">
       <c t="s" r="A197">
         <v>268</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="198">
+    <row r="198" spans="1:8">
       <c t="s" r="A198">
         <v>177</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="199">
+    <row r="199" spans="1:8">
       <c t="s" r="A199">
         <v>177</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="200">
+    <row r="200" spans="1:8">
       <c t="s" r="A200">
         <v>177</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="201">
+    <row r="201" spans="1:8">
       <c t="s" r="A201">
         <v>177</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="202">
+    <row r="202" spans="1:8">
       <c t="s" r="A202">
         <v>73</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="203">
+    <row r="203" spans="1:8">
       <c t="s" r="A203">
         <v>73</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="204">
+    <row r="204" spans="1:8">
       <c t="s" r="A204">
         <v>73</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="205">
+    <row r="205" spans="1:8">
       <c t="s" r="A205">
         <v>249</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="206">
+    <row r="206" spans="1:8">
       <c t="s" r="A206">
         <v>250</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="207">
+    <row r="207" spans="1:8">
       <c t="s" r="A207">
         <v>6</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="208">
+    <row r="208" spans="1:8">
       <c t="s" r="A208">
         <v>6</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>251</v>
       </c>
     </row>
-    <row spans="1:8" r="209">
+    <row r="209" spans="1:8">
       <c t="s" r="A209">
         <v>6</v>
       </c>
